--- a/DTW-05-2022.xlsx
+++ b/DTW-05-2022.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16575" windowHeight="9645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16575" windowHeight="9645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="238">
   <si>
     <t xml:space="preserve">Mise a jour des titres dans </t>
   </si>
@@ -452,12 +453,495 @@
   <si>
     <t>On a lié le modele a une Vue ,et on utilise le modele qu'on passe a la vue grace a du razor</t>
   </si>
+  <si>
+    <t>Relions a la bdd</t>
+  </si>
+  <si>
+    <t>Mode local</t>
+  </si>
+  <si>
+    <t>On addresse une BDD existante en ligne ,on config le mode prod</t>
+  </si>
+  <si>
+    <t>Mode Prod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "ConnectionStrings": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "DefaultConnection": "server=mysql-devtechwatch.alwaysdata.net;database=devtechwatch_dtw; uid=267041;pwd=NYV8e@6u4$j4Wc7Eh;"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Logging": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "LogLevel": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Default": "Information",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Microsoft": "Warning",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Microsoft.Hosting.Lifetime": "Information"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "AllowedHosts": "*"</t>
+  </si>
+  <si>
+    <t>appsettings.json</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  // on commente/decommente a la demande.............</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  //"DefaultConnection": "server=127.0.0.1;database=dev_tech_watch;uid=root;pwd=5^6n=Z^HEQArnKvF;"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">On cree le repertoire config </t>
+  </si>
+  <si>
+    <t>+ BaseRepository.cs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public Startup(IConfiguration configuration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Configuration = configuration;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public IConfiguration Configuration { get; }</t>
+  </si>
+  <si>
+    <t>c'est de l'injection de dependance</t>
+  </si>
+  <si>
+    <t>Extention pour se connecter a mySQL</t>
+  </si>
+  <si>
+    <t>using Microsoft.Extensions.Configuration;</t>
+  </si>
+  <si>
+    <t>using MySql.Data.MySqlClient;</t>
+  </si>
+  <si>
+    <t>namespace DTW_Repository.config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //Cette classe va contenir les fonctions de connection a la BDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //On va pouvoir Heriter de cette classe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public class BaseRepository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      //on a besoin de ma chaine de connection..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      // ( elle est dans le appsettings.json )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public string ConnectionString { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // a la construction de mon BaseRepository. je veux recuperer la connection qui est dans l'interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // qui s'appelle : Iconfiguration !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // Iconfiguration fait partie d'un paquet qui s'appelle :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // "Microsoft.Extentions.Configuration.Abstraction" que l'on appelle un "Pakage-Nugget"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // ( c'est une dependance ,une sorte de "npm" )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public BaseRepository(IConfiguration configuration) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ConnectionString = configuration.GetConnectionString("DefaultConnection");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public MySqlConnection OpenConnection()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            //je peux avoir ma chaine de connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            //connectionString="server=mysql-devtechwatch.alwaysdata.net;database=devtechwatch_dtw; uid=267041;pwd=NYV8e@6u4$j4Wc7Eh;"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            try</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            { </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            MySqlConnection cnn = new MySqlConnection(ConnectionString);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                cnn.Open();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                //j'ouvre la connection et je la retourne'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                return cnn;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            catch(Exception ex)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                throw new Exception("Impossible de se connecter a la BDD");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public interface IBaseRepository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public MySqlConnection OpenConnection();</t>
+  </si>
+  <si>
+    <t>IBaseRepository.cs</t>
+  </si>
+  <si>
+    <t>On cree une interface</t>
+  </si>
+  <si>
+    <t>:IBaseRepository</t>
+  </si>
+  <si>
+    <t>(interface voir chapitre suivant)</t>
+  </si>
+  <si>
+    <t>Injection de dependance :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans le fichier </t>
+  </si>
+  <si>
+    <t>Startup.cs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public void ConfigureServices(IServiceCollection services)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            //injection de la dependance....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            services.AddTransient&lt;IBaseRepository,BaseRepository&gt;();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            services.AddControllersWithViews();</t>
+  </si>
+  <si>
+    <t>using DTW_Repository.config;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // on pourra appeller la fonction via son interface</t>
+  </si>
+  <si>
+    <t>Pour un repository on doit:</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>créer l'interface avec toutes les methodes</t>
+  </si>
+  <si>
+    <t>créer la classe (avec les methodes implementées</t>
+  </si>
+  <si>
+    <t>dans startup.cs:configure services,un service adtranscient avec mon interface</t>
+  </si>
+  <si>
+    <t>et la base repository</t>
+  </si>
+  <si>
+    <t>namespace DTW_Repository.Links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public List&lt;LinkModel&gt; GetAllLinks();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public class LinkRepository:ILinkRepository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public List&lt;LinkModel&gt; GetAllLinks() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return new List&lt;LinkModel&gt;(); }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> interface ILinkRepository</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> class LinkRepository:ILinkRepository</t>
+    </r>
+  </si>
+  <si>
+    <t>//injection de la dependance....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            services.AddTransient&lt;ILinkRepository,LinkRepository&gt;();</t>
+  </si>
+  <si>
+    <t>39:00:00 ??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return new List&lt;LinkModel&gt;()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                new LinkModel()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Title="on est dans le repository"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // todo recuperer le modele depuis le repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        private readonly ILinkRepository _linkRepository;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public LinksController(ILinkRepository linkRepository)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // des qu'on instancie un link controleur ,on recupere link repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // via interface et l'injection de dependances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            _linkRepository = linkRepository;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                LstLinks = _linkRepository.GetAllLinks()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                // appel de la methode via interface/injection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return View(vm);</t>
+  </si>
+  <si>
+    <t>On modifie le controleur</t>
+  </si>
+  <si>
+    <t>Link repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public LinkRepository(IConfiguration configuration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // je connecte a Bdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // je cree une requette SQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            string sql = @"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               SELECT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    l.idLinks, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    l.Title,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    l.Description, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    l.Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                FROM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    links l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    LIMIT 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // executer la requette SQL donc  creer une comande avec l'objet MysqlComand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // je cree une commande en passant sql(la requette) ,et la connection (cnn)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            MySqlCommand cmd=new MySqlCommand(sql,cnn);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // je dois maintenant executer cette commande:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var reader = cmd.ExecuteReader();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var maListe=new List&lt;LinkModel&gt;();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            while (reader.Read())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                var lelien = new LinkModel()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    IdLink = (int)reader["idLinks"],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Title = reader["Title"].ToString(),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Description = reader["Description"].ToString(),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    URL = reader["Link"].ToString(),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                };</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                maListe.Add(lelien);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            cnn.Open();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           // J'ouvre la connection ! ****</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            cnn.Close();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // retour liste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         // on ferme la connection !</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> maListe;</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,6 +1020,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
@@ -552,7 +1043,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -565,8 +1070,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,13 +1132,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,7 +1203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -645,17 +1214,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1375,6 +1967,678 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>31702</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638176" y="600075"/>
+          <a:ext cx="2743200" cy="1717627"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>176214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Flèche vers le bas 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3131342" y="1107284"/>
+          <a:ext cx="204790" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>14290</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Flèche vers le bas 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3117055" y="931070"/>
+          <a:ext cx="204790" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190199</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="6381750"/>
+          <a:ext cx="2409524" cy="1257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>284853</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>133067</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="10325100"/>
+          <a:ext cx="7171428" cy="2266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161055</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>133058</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Image 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819150" y="12925425"/>
+          <a:ext cx="6961905" cy="2333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>18315</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>18657</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="Groupe 19"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="695325" y="18202275"/>
+          <a:ext cx="6180990" cy="3142857"/>
+          <a:chOff x="1162050" y="17830800"/>
+          <a:chExt cx="6180990" cy="3142857"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="13" name="Image 12"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1466850" y="17830800"/>
+            <a:ext cx="5876190" cy="3142857"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="ZoneTexte 13"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1162050" y="18992850"/>
+            <a:ext cx="1247775" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Clic droit &gt;&gt;</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Ellipse 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2619375" y="18430875"/>
+            <a:ext cx="2219325" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>155820</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="Groupe 18"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="21536025"/>
+          <a:ext cx="9086850" cy="3756270"/>
+          <a:chOff x="0" y="21431250"/>
+          <a:chExt cx="9086850" cy="3756270"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="Image 8"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="257175" y="21431250"/>
+            <a:ext cx="8677275" cy="3756270"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Ellipse 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="22240875"/>
+            <a:ext cx="2886075" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Ellipse 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8048625" y="22383750"/>
+            <a:ext cx="1038225" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171192</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>9310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Image 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6486525" y="35766375"/>
+          <a:ext cx="2066667" cy="1723810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>138066</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Image 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1247775" y="54273451"/>
+          <a:ext cx="2990850" cy="2490740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Image 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181100" y="55768875"/>
+          <a:ext cx="1266825" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -1640,7 +2904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B31:J79"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
@@ -1690,7 +2954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B22:R224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D227" sqref="D227"/>
     </sheetView>
   </sheetViews>
@@ -2083,18 +3347,18 @@
       <c r="K93" s="3"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
     </row>
     <row r="101" spans="2:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B101" s="8" t="s">
@@ -2107,48 +3371,48 @@
       </c>
     </row>
     <row r="105" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14" t="s">
+      <c r="C105" s="16"/>
+      <c r="D105" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
-      <c r="I108" s="10"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
     </row>
     <row r="109" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
     </row>
     <row r="110" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15" t="s">
+      <c r="C110" s="17"/>
+      <c r="D110" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E110" s="15"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15" t="s">
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2385,10 +3649,10 @@
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
-      <c r="H144" s="16" t="s">
+      <c r="H144" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I144" s="16"/>
+      <c r="I144" s="19"/>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" s="3" t="s">
@@ -2409,14 +3673,14 @@
       <c r="F146" s="3"/>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B151" s="10"/>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10"/>
-      <c r="G151" s="10"/>
-      <c r="H151" s="10"/>
-      <c r="I151" s="10"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="11"/>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
@@ -2508,7 +3772,7 @@
       <c r="F163" s="3"/>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B164" s="17" t="s">
+      <c r="B164" s="21" t="s">
         <v>88</v>
       </c>
       <c r="C164" s="3"/>
@@ -2787,12 +4051,12 @@
       <c r="F194" s="3"/>
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B196" s="18"/>
-      <c r="C196" s="18"/>
-      <c r="D196" s="18"/>
-      <c r="E196" s="18"/>
-      <c r="F196" s="18"/>
-      <c r="G196" s="18"/>
+      <c r="B196" s="22"/>
+      <c r="C196" s="22"/>
+      <c r="D196" s="22"/>
+      <c r="E196" s="22"/>
+      <c r="F196" s="22"/>
+      <c r="G196" s="22"/>
     </row>
     <row r="198" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B198" s="8" t="s">
@@ -2816,7 +4080,7 @@
       <c r="G200" s="3"/>
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B201" s="19" t="s">
+      <c r="B201" s="24" t="s">
         <v>104</v>
       </c>
       <c r="C201" s="3"/>
@@ -2826,7 +4090,7 @@
       <c r="G201" s="3"/>
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B202" s="19" t="s">
+      <c r="B202" s="24" t="s">
         <v>52</v>
       </c>
       <c r="C202" s="3"/>
@@ -3034,7 +4298,7 @@
       <c r="G222" s="3"/>
     </row>
     <row r="224" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B224" s="20" t="s">
+      <c r="B224" s="25" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3043,4 +4307,2666 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:P363"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="E368" sqref="E368"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="B15" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="28"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="28"/>
+      <c r="J90" s="28"/>
+      <c r="K90" s="28"/>
+      <c r="L90" s="28"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="30">
+        <v>1.0770833333333334</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B93" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B134" s="28"/>
+      <c r="C134" s="28"/>
+      <c r="D134" s="28"/>
+      <c r="E134" s="28"/>
+      <c r="F134" s="28"/>
+      <c r="G134" s="28"/>
+      <c r="H134" s="28"/>
+      <c r="I134" s="28"/>
+      <c r="J134" s="28"/>
+      <c r="K134" s="28"/>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B138" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="13"/>
+      <c r="J138" s="13"/>
+      <c r="K138" s="13"/>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B139" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="13"/>
+      <c r="I139" s="13"/>
+      <c r="J139" s="13"/>
+      <c r="K139" s="13"/>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B140" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="13"/>
+      <c r="I140" s="13"/>
+      <c r="J140" s="13"/>
+      <c r="K140" s="13"/>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B141" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="13"/>
+      <c r="J141" s="13"/>
+      <c r="K141" s="13"/>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B142" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="13"/>
+      <c r="I142" s="13"/>
+      <c r="J142" s="13"/>
+      <c r="K142" s="13"/>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B143" s="13"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="13"/>
+      <c r="I143" s="13"/>
+      <c r="J143" s="13"/>
+      <c r="K143" s="13"/>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B144" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="13"/>
+      <c r="I144" s="13"/>
+      <c r="J144" s="13"/>
+      <c r="K144" s="13"/>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B145" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="13"/>
+      <c r="J145" s="13"/>
+      <c r="K145" s="13"/>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B146" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="13"/>
+      <c r="I146" s="13"/>
+      <c r="J146" s="13"/>
+      <c r="K146" s="13"/>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B147" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="13"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="13"/>
+      <c r="I147" s="13"/>
+      <c r="J147" s="13"/>
+      <c r="K147" s="13"/>
+    </row>
+    <row r="148" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B148" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="F148" s="13"/>
+      <c r="G148" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="H148" s="13"/>
+      <c r="I148" s="13"/>
+      <c r="J148" s="13"/>
+      <c r="K148" s="13"/>
+    </row>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B149" s="13"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13"/>
+      <c r="G149" s="13"/>
+      <c r="H149" s="13"/>
+      <c r="I149" s="13"/>
+      <c r="J149" s="13"/>
+      <c r="K149" s="13"/>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B150" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="13"/>
+      <c r="I150" s="13"/>
+      <c r="J150" s="13"/>
+      <c r="K150" s="13"/>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B151" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="13"/>
+      <c r="H151" s="13"/>
+      <c r="I151" s="13"/>
+      <c r="J151" s="13"/>
+      <c r="K151" s="13"/>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B152" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="13"/>
+      <c r="I152" s="13"/>
+      <c r="J152" s="13"/>
+      <c r="K152" s="13"/>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B153" s="13"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="13"/>
+      <c r="J153" s="13"/>
+      <c r="K153" s="13"/>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B154" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
+      <c r="G154" s="13"/>
+      <c r="H154" s="13"/>
+      <c r="I154" s="13"/>
+      <c r="J154" s="13"/>
+      <c r="K154" s="13"/>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B155" s="13"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13"/>
+      <c r="G155" s="13"/>
+      <c r="H155" s="13"/>
+      <c r="I155" s="13"/>
+      <c r="J155" s="13"/>
+      <c r="K155" s="13"/>
+    </row>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B156" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13"/>
+      <c r="G156" s="13"/>
+      <c r="H156" s="13"/>
+      <c r="I156" s="13"/>
+      <c r="J156" s="13"/>
+      <c r="K156" s="13"/>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B157" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="13"/>
+      <c r="G157" s="13"/>
+      <c r="H157" s="13"/>
+      <c r="I157" s="13"/>
+      <c r="J157" s="13"/>
+      <c r="K157" s="13"/>
+    </row>
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B158" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
+      <c r="G158" s="13"/>
+      <c r="H158" s="13"/>
+      <c r="I158" s="13"/>
+      <c r="J158" s="13"/>
+      <c r="K158" s="13"/>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B159" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C159" s="13"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="13"/>
+      <c r="G159" s="13"/>
+      <c r="H159" s="13"/>
+      <c r="I159" s="13"/>
+      <c r="J159" s="13"/>
+      <c r="K159" s="13"/>
+    </row>
+    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B160" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="C160" s="13"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="13"/>
+      <c r="I160" s="13"/>
+      <c r="J160" s="13"/>
+      <c r="K160" s="13"/>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B161" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C161" s="13"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+      <c r="G161" s="13"/>
+      <c r="H161" s="13"/>
+      <c r="I161" s="13"/>
+      <c r="J161" s="13"/>
+      <c r="K161" s="13"/>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B162" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="13"/>
+      <c r="G162" s="13"/>
+      <c r="H162" s="13"/>
+      <c r="I162" s="13"/>
+      <c r="J162" s="13"/>
+      <c r="K162" s="13"/>
+    </row>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B163" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C163" s="13"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="13"/>
+      <c r="G163" s="13"/>
+      <c r="H163" s="13"/>
+      <c r="I163" s="13"/>
+      <c r="J163" s="13"/>
+      <c r="K163" s="13"/>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B164" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13"/>
+      <c r="G164" s="13"/>
+      <c r="H164" s="13"/>
+      <c r="I164" s="13"/>
+      <c r="J164" s="13"/>
+      <c r="K164" s="13"/>
+    </row>
+    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B165" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C165" s="13"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="13"/>
+      <c r="G165" s="13"/>
+      <c r="H165" s="13"/>
+      <c r="I165" s="13"/>
+      <c r="J165" s="13"/>
+      <c r="K165" s="13"/>
+    </row>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B166" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C166" s="13"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13"/>
+      <c r="G166" s="13"/>
+      <c r="H166" s="13"/>
+      <c r="I166" s="13"/>
+      <c r="J166" s="13"/>
+      <c r="K166" s="13"/>
+    </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B167" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C167" s="13"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="13"/>
+      <c r="F167" s="13"/>
+      <c r="G167" s="13"/>
+      <c r="H167" s="13"/>
+      <c r="I167" s="13"/>
+      <c r="J167" s="13"/>
+      <c r="K167" s="13"/>
+    </row>
+    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B168" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C168" s="13"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="13"/>
+      <c r="G168" s="13"/>
+      <c r="H168" s="13"/>
+      <c r="I168" s="13"/>
+      <c r="J168" s="13"/>
+      <c r="K168" s="13"/>
+    </row>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B169" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C169" s="13"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="13"/>
+      <c r="G169" s="13"/>
+      <c r="H169" s="13"/>
+      <c r="I169" s="13"/>
+      <c r="J169" s="13"/>
+      <c r="K169" s="13"/>
+    </row>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B170" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="13"/>
+      <c r="F170" s="13"/>
+      <c r="G170" s="13"/>
+      <c r="H170" s="13"/>
+      <c r="I170" s="13"/>
+      <c r="J170" s="13"/>
+      <c r="K170" s="13"/>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B171" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="13"/>
+      <c r="G171" s="13"/>
+      <c r="H171" s="13"/>
+      <c r="I171" s="13"/>
+      <c r="J171" s="13"/>
+      <c r="K171" s="13"/>
+    </row>
+    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B172" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="13"/>
+      <c r="F172" s="13"/>
+      <c r="G172" s="13"/>
+      <c r="H172" s="13"/>
+      <c r="I172" s="13"/>
+      <c r="J172" s="13"/>
+      <c r="K172" s="13"/>
+    </row>
+    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B173" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="13"/>
+      <c r="F173" s="13"/>
+      <c r="G173" s="13"/>
+      <c r="H173" s="13"/>
+      <c r="I173" s="13"/>
+      <c r="J173" s="13"/>
+      <c r="K173" s="13"/>
+    </row>
+    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B174" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C174" s="13"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="13"/>
+      <c r="F174" s="13"/>
+      <c r="G174" s="13"/>
+      <c r="H174" s="13"/>
+      <c r="I174" s="13"/>
+      <c r="J174" s="13"/>
+      <c r="K174" s="13"/>
+    </row>
+    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B175" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C175" s="13"/>
+      <c r="D175" s="13"/>
+      <c r="E175" s="13"/>
+      <c r="F175" s="13"/>
+      <c r="G175" s="13"/>
+      <c r="H175" s="13"/>
+      <c r="I175" s="13"/>
+      <c r="J175" s="13"/>
+      <c r="K175" s="13"/>
+    </row>
+    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B176" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C176" s="13"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="13"/>
+      <c r="G176" s="13"/>
+      <c r="H176" s="13"/>
+      <c r="I176" s="13"/>
+      <c r="J176" s="13"/>
+      <c r="K176" s="13"/>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B177" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C177" s="13"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="13"/>
+      <c r="G177" s="13"/>
+      <c r="H177" s="13"/>
+      <c r="I177" s="13"/>
+      <c r="J177" s="13"/>
+      <c r="K177" s="13"/>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B178" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C178" s="13"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="13"/>
+      <c r="G178" s="13"/>
+      <c r="H178" s="13"/>
+      <c r="I178" s="13"/>
+      <c r="J178" s="13"/>
+      <c r="K178" s="13"/>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B179" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C179" s="13"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="13"/>
+      <c r="F179" s="13"/>
+      <c r="G179" s="13"/>
+      <c r="H179" s="13"/>
+      <c r="I179" s="13"/>
+      <c r="J179" s="13"/>
+      <c r="K179" s="13"/>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B180" s="13"/>
+      <c r="C180" s="13"/>
+      <c r="D180" s="13"/>
+      <c r="E180" s="13"/>
+      <c r="F180" s="13"/>
+      <c r="G180" s="13"/>
+      <c r="H180" s="13"/>
+      <c r="I180" s="13"/>
+      <c r="J180" s="13"/>
+      <c r="K180" s="13"/>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B181" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C181" s="13"/>
+      <c r="D181" s="13"/>
+      <c r="E181" s="13"/>
+      <c r="F181" s="13"/>
+      <c r="G181" s="13"/>
+      <c r="H181" s="13"/>
+      <c r="I181" s="13"/>
+      <c r="J181" s="13"/>
+      <c r="K181" s="13"/>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B182" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C182" s="13"/>
+      <c r="D182" s="13"/>
+      <c r="E182" s="13"/>
+      <c r="F182" s="13"/>
+      <c r="G182" s="13"/>
+      <c r="H182" s="13"/>
+      <c r="I182" s="13"/>
+      <c r="J182" s="13"/>
+      <c r="K182" s="13"/>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B183" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C183" s="13"/>
+      <c r="D183" s="13"/>
+      <c r="E183" s="13"/>
+      <c r="F183" s="13"/>
+      <c r="G183" s="13"/>
+      <c r="H183" s="13"/>
+      <c r="I183" s="13"/>
+      <c r="J183" s="13"/>
+      <c r="K183" s="13"/>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B185" s="32"/>
+      <c r="C185" s="32"/>
+      <c r="D185" s="32"/>
+      <c r="E185" s="32"/>
+      <c r="F185" s="32"/>
+      <c r="G185" s="32"/>
+      <c r="H185" s="32"/>
+      <c r="I185" s="32"/>
+      <c r="J185" s="32"/>
+    </row>
+    <row r="187" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B187" s="33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="188" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B188" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B189" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C189" s="13"/>
+      <c r="D189" s="13"/>
+      <c r="E189" s="13"/>
+      <c r="F189" s="13"/>
+      <c r="G189" s="13"/>
+      <c r="H189" s="13"/>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B190" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C190" s="13"/>
+      <c r="D190" s="13"/>
+      <c r="E190" s="13"/>
+      <c r="F190" s="13"/>
+      <c r="G190" s="13"/>
+      <c r="H190" s="13"/>
+    </row>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B191" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C191" s="13"/>
+      <c r="D191" s="13"/>
+      <c r="E191" s="13"/>
+      <c r="F191" s="13"/>
+      <c r="G191" s="13"/>
+      <c r="H191" s="13"/>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B192" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C192" s="13"/>
+      <c r="D192" s="13"/>
+      <c r="E192" s="13"/>
+      <c r="F192" s="13"/>
+      <c r="G192" s="13"/>
+      <c r="H192" s="13"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B193" s="13"/>
+      <c r="C193" s="13"/>
+      <c r="D193" s="13"/>
+      <c r="E193" s="13"/>
+      <c r="F193" s="13"/>
+      <c r="G193" s="13"/>
+      <c r="H193" s="13"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B194" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C194" s="13"/>
+      <c r="D194" s="13"/>
+      <c r="E194" s="13"/>
+      <c r="F194" s="13"/>
+      <c r="G194" s="13"/>
+      <c r="H194" s="13"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B195" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C195" s="13"/>
+      <c r="D195" s="13"/>
+      <c r="E195" s="13"/>
+      <c r="F195" s="13"/>
+      <c r="G195" s="13"/>
+      <c r="H195" s="13"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B196" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C196" s="13"/>
+      <c r="D196" s="13"/>
+      <c r="E196" s="13"/>
+      <c r="F196" s="13"/>
+      <c r="G196" s="13"/>
+      <c r="H196" s="13"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B197" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C197" s="13"/>
+      <c r="D197" s="13"/>
+      <c r="E197" s="13"/>
+      <c r="F197" s="13"/>
+      <c r="G197" s="13"/>
+      <c r="H197" s="13"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B198" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C198" s="13"/>
+      <c r="D198" s="13"/>
+      <c r="E198" s="13"/>
+      <c r="F198" s="13"/>
+      <c r="G198" s="13"/>
+      <c r="H198" s="13"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B199" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C199" s="13"/>
+      <c r="D199" s="13"/>
+      <c r="E199" s="13"/>
+      <c r="F199" s="13"/>
+      <c r="G199" s="13"/>
+      <c r="H199" s="13"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B200" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C200" s="13"/>
+      <c r="D200" s="13"/>
+      <c r="E200" s="13"/>
+      <c r="F200" s="13"/>
+      <c r="G200" s="13"/>
+      <c r="H200" s="13"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="29">
+        <v>1.3229166666666667</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B204" s="18"/>
+      <c r="C204" s="18"/>
+      <c r="D204" s="18"/>
+      <c r="E204" s="18"/>
+      <c r="F204" s="18"/>
+      <c r="G204" s="18"/>
+      <c r="H204" s="18"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>167</v>
+      </c>
+      <c r="D207" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B209" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C209" s="23"/>
+      <c r="D209" s="23"/>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+      <c r="F210" s="3"/>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B211" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+      <c r="F211" s="3"/>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B212" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B213" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="23"/>
+      <c r="F213" s="23"/>
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B214" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B215" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C215" s="23"/>
+      <c r="D215" s="23"/>
+      <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B216" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B217" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="3"/>
+    </row>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B220" s="36"/>
+      <c r="C220" s="36"/>
+      <c r="D220" s="36"/>
+      <c r="E220" s="36"/>
+      <c r="F220" s="36"/>
+      <c r="G220" s="36"/>
+      <c r="H220" s="36"/>
+      <c r="I220" s="36"/>
+    </row>
+    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C222" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C224" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D224" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C225" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D225" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C226" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D226" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E227" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C230" s="36"/>
+      <c r="D230" s="36"/>
+      <c r="E230" s="36"/>
+      <c r="F230" s="36"/>
+      <c r="G230" s="36"/>
+      <c r="H230" s="36"/>
+    </row>
+    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B233" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C233" s="13"/>
+      <c r="D233" s="13"/>
+      <c r="E233" s="13"/>
+      <c r="F233" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+    </row>
+    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B234" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C234" s="13"/>
+      <c r="D234" s="13"/>
+      <c r="E234" s="13"/>
+      <c r="F234" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+    </row>
+    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B235" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C235" s="13"/>
+      <c r="D235" s="13"/>
+      <c r="E235" s="13"/>
+      <c r="F235" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+    </row>
+    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B236" s="13"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="13"/>
+      <c r="E236" s="13"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
+    </row>
+    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B237" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C237" s="13"/>
+      <c r="D237" s="13"/>
+      <c r="E237" s="13"/>
+      <c r="F237" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
+    </row>
+    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B238" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C238" s="13"/>
+      <c r="D238" s="13"/>
+      <c r="E238" s="13"/>
+      <c r="F238" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G238" s="1"/>
+      <c r="H238" s="1"/>
+      <c r="I238" s="1"/>
+    </row>
+    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B239" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="C239" s="13"/>
+      <c r="D239" s="13"/>
+      <c r="E239" s="13"/>
+      <c r="F239" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+    </row>
+    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B240" s="13"/>
+      <c r="C240" s="13"/>
+      <c r="D240" s="13"/>
+      <c r="E240" s="13"/>
+      <c r="F240" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G240" s="1"/>
+      <c r="H240" s="1"/>
+      <c r="I240" s="1"/>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B241" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C241" s="13"/>
+      <c r="D241" s="13"/>
+      <c r="E241" s="13"/>
+      <c r="F241" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G241" s="1"/>
+      <c r="H241" s="1"/>
+      <c r="I241" s="1"/>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B242" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C242" s="13"/>
+      <c r="D242" s="13"/>
+      <c r="E242" s="13"/>
+      <c r="F242" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1"/>
+      <c r="I242" s="1"/>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B243" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C243" s="13"/>
+      <c r="D243" s="13"/>
+      <c r="E243" s="13"/>
+      <c r="F243" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
+      <c r="I243" s="1"/>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B244" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C244" s="13"/>
+      <c r="D244" s="13"/>
+      <c r="E244" s="13"/>
+      <c r="F244" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G244" s="1"/>
+      <c r="H244" s="1"/>
+      <c r="I244" s="1"/>
+    </row>
+    <row r="246" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C246" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C248" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C250" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D250" s="13"/>
+      <c r="E250" s="13"/>
+      <c r="F250" s="13"/>
+      <c r="G250" s="13"/>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C251" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D251" s="13"/>
+      <c r="E251" s="13"/>
+      <c r="F251" s="13"/>
+      <c r="G251" s="13"/>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C252" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D252" s="13"/>
+      <c r="E252" s="13"/>
+      <c r="F252" s="13"/>
+      <c r="G252" s="13"/>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C253" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="D253" s="13"/>
+      <c r="E253" s="13"/>
+      <c r="F253" s="13"/>
+      <c r="G253" s="13"/>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" s="29">
+        <v>1.5458333333333334</v>
+      </c>
+      <c r="B256" s="40"/>
+      <c r="C256" s="40"/>
+      <c r="D256" s="40"/>
+      <c r="E256" s="40"/>
+      <c r="F256" s="40"/>
+      <c r="G256" s="40"/>
+      <c r="H256" s="40"/>
+      <c r="I256" s="40"/>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>190</v>
+      </c>
+      <c r="C258" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="H258" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C259" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D259" s="3"/>
+      <c r="E259" s="3"/>
+      <c r="F259" s="3"/>
+      <c r="H259" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I259" s="3"/>
+      <c r="J259" s="3"/>
+      <c r="K259" s="3"/>
+      <c r="L259" s="3"/>
+      <c r="M259" s="3"/>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C260" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D260" s="3"/>
+      <c r="E260" s="3"/>
+      <c r="F260" s="3"/>
+      <c r="H260" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I260" s="3"/>
+      <c r="J260" s="3"/>
+      <c r="K260" s="3"/>
+      <c r="L260" s="3"/>
+      <c r="M260" s="3"/>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C261" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D261" s="3"/>
+      <c r="E261" s="3"/>
+      <c r="F261" s="3"/>
+      <c r="H261" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I261" s="3"/>
+      <c r="J261" s="3"/>
+      <c r="K261" s="3"/>
+      <c r="L261" s="3"/>
+      <c r="M261" s="3"/>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C262" s="3"/>
+      <c r="D262" s="3"/>
+      <c r="E262" s="3"/>
+      <c r="F262" s="3"/>
+      <c r="H262" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I262" s="3"/>
+      <c r="J262" s="3"/>
+      <c r="K262" s="3"/>
+      <c r="L262" s="3"/>
+      <c r="M262" s="3"/>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C263" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D263" s="3"/>
+      <c r="E263" s="3"/>
+      <c r="F263" s="3"/>
+      <c r="H263" s="3"/>
+      <c r="I263" s="3"/>
+      <c r="J263" s="3"/>
+      <c r="K263" s="3"/>
+      <c r="L263" s="3"/>
+      <c r="M263" s="3"/>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C264" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D264" s="3"/>
+      <c r="E264" s="3"/>
+      <c r="F264" s="3"/>
+      <c r="H264" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I264" s="3"/>
+      <c r="J264" s="3"/>
+      <c r="K264" s="3"/>
+      <c r="L264" s="3"/>
+      <c r="M264" s="3"/>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C265" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D265" s="3"/>
+      <c r="E265" s="3"/>
+      <c r="F265" s="3"/>
+      <c r="H265" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I265" s="3"/>
+      <c r="J265" s="3"/>
+      <c r="K265" s="3"/>
+      <c r="L265" s="3"/>
+      <c r="M265" s="3"/>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C266" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D266" s="3"/>
+      <c r="E266" s="3"/>
+      <c r="F266" s="3"/>
+      <c r="H266" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I266" s="3"/>
+      <c r="J266" s="3"/>
+      <c r="K266" s="3"/>
+      <c r="L266" s="3"/>
+      <c r="M266" s="3"/>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C267" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D267" s="3"/>
+      <c r="E267" s="3"/>
+      <c r="F267" s="3"/>
+      <c r="H267" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I267" s="3"/>
+      <c r="J267" s="3"/>
+      <c r="K267" s="3"/>
+      <c r="L267" s="3"/>
+      <c r="M267" s="3"/>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C268" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D268" s="3"/>
+      <c r="E268" s="3"/>
+      <c r="F268" s="3"/>
+      <c r="H268" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I268" s="3"/>
+      <c r="J268" s="3"/>
+      <c r="K268" s="3"/>
+      <c r="L268" s="3"/>
+      <c r="M268" s="3"/>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C269" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D269" s="3"/>
+      <c r="E269" s="3"/>
+      <c r="F269" s="3"/>
+      <c r="H269" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I269" s="3"/>
+      <c r="J269" s="3"/>
+      <c r="K269" s="3"/>
+      <c r="L269" s="3"/>
+      <c r="M269" s="3"/>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C270" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D270" s="3"/>
+      <c r="E270" s="3"/>
+      <c r="F270" s="3"/>
+      <c r="H270" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I270" s="3"/>
+      <c r="J270" s="3"/>
+      <c r="K270" s="3"/>
+      <c r="L270" s="3"/>
+      <c r="M270" s="3"/>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C271" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D271" s="3"/>
+      <c r="E271" s="3"/>
+      <c r="F271" s="3"/>
+      <c r="H271" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I271" s="3"/>
+      <c r="J271" s="3"/>
+      <c r="K271" s="3"/>
+      <c r="L271" s="3"/>
+      <c r="M271" s="3"/>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C272" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D272" s="3"/>
+      <c r="E272" s="3"/>
+      <c r="F272" s="3"/>
+      <c r="H272" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I272" s="3"/>
+      <c r="J272" s="3"/>
+      <c r="K272" s="3"/>
+      <c r="L272" s="3"/>
+      <c r="M272" s="3"/>
+    </row>
+    <row r="273" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C273" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D273" s="3"/>
+      <c r="E273" s="3"/>
+      <c r="F273" s="3"/>
+      <c r="H273" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I273" s="3"/>
+      <c r="J273" s="3"/>
+      <c r="K273" s="3"/>
+      <c r="L273" s="3"/>
+      <c r="M273" s="3"/>
+    </row>
+    <row r="274" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C274" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D274" s="3"/>
+      <c r="E274" s="3"/>
+      <c r="F274" s="3"/>
+      <c r="H274" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I274" s="3"/>
+      <c r="J274" s="3"/>
+      <c r="K274" s="3"/>
+      <c r="L274" s="3"/>
+      <c r="M274" s="3"/>
+    </row>
+    <row r="275" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C275" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D275" s="3"/>
+      <c r="E275" s="3"/>
+      <c r="F275" s="3"/>
+      <c r="H275" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I275" s="3"/>
+      <c r="J275" s="3"/>
+      <c r="K275" s="3"/>
+      <c r="L275" s="3"/>
+      <c r="M275" s="3"/>
+    </row>
+    <row r="276" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C276" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D276" s="3"/>
+      <c r="E276" s="3"/>
+      <c r="F276" s="3"/>
+      <c r="H276" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I276" s="3"/>
+      <c r="J276" s="3"/>
+      <c r="K276" s="3"/>
+      <c r="L276" s="3"/>
+      <c r="M276" s="3"/>
+    </row>
+    <row r="277" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C277" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D277" s="3"/>
+      <c r="E277" s="3"/>
+      <c r="F277" s="3"/>
+      <c r="H277" s="3"/>
+      <c r="I277" s="3"/>
+      <c r="J277" s="3"/>
+      <c r="K277" s="3"/>
+      <c r="L277" s="3"/>
+      <c r="M277" s="3"/>
+    </row>
+    <row r="278" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C278" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D278" s="3"/>
+      <c r="E278" s="3"/>
+      <c r="F278" s="3"/>
+      <c r="H278" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I278" s="3"/>
+      <c r="J278" s="3"/>
+      <c r="K278" s="3"/>
+      <c r="L278" s="3"/>
+      <c r="M278" s="3"/>
+    </row>
+    <row r="279" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C279" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D279" s="3"/>
+      <c r="E279" s="3"/>
+      <c r="F279" s="3"/>
+      <c r="H279" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I279" s="3"/>
+      <c r="J279" s="3"/>
+      <c r="K279" s="3"/>
+      <c r="L279" s="3"/>
+      <c r="M279" s="3"/>
+    </row>
+    <row r="280" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H280" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I280" s="3"/>
+      <c r="J280" s="3"/>
+      <c r="K280" s="3"/>
+      <c r="L280" s="3"/>
+      <c r="M280" s="3"/>
+    </row>
+    <row r="281" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H281" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I281" s="3"/>
+      <c r="J281" s="3"/>
+      <c r="K281" s="3"/>
+      <c r="L281" s="3"/>
+      <c r="M281" s="3"/>
+    </row>
+    <row r="282" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H282" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I282" s="3"/>
+      <c r="J282" s="3"/>
+      <c r="K282" s="3"/>
+      <c r="L282" s="3"/>
+      <c r="M282" s="3"/>
+    </row>
+    <row r="283" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H283" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I283" s="3"/>
+      <c r="J283" s="3"/>
+      <c r="K283" s="3"/>
+      <c r="L283" s="3"/>
+      <c r="M283" s="3"/>
+    </row>
+    <row r="284" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H284" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I284" s="3"/>
+      <c r="J284" s="3"/>
+      <c r="K284" s="3"/>
+      <c r="L284" s="3"/>
+      <c r="M284" s="3"/>
+    </row>
+    <row r="285" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H285" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I285" s="3"/>
+      <c r="J285" s="3"/>
+      <c r="K285" s="3"/>
+      <c r="L285" s="3"/>
+      <c r="M285" s="3"/>
+    </row>
+    <row r="286" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H286" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I286" s="3"/>
+      <c r="J286" s="3"/>
+      <c r="K286" s="3"/>
+      <c r="L286" s="3"/>
+      <c r="M286" s="3"/>
+    </row>
+    <row r="287" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H287" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I287" s="3"/>
+      <c r="J287" s="3"/>
+      <c r="K287" s="3"/>
+      <c r="L287" s="3"/>
+      <c r="M287" s="3"/>
+    </row>
+    <row r="288" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H288" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I288" s="3"/>
+      <c r="J288" s="3"/>
+      <c r="K288" s="3"/>
+      <c r="L288" s="3"/>
+      <c r="M288" s="3"/>
+    </row>
+    <row r="298" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B298" s="41"/>
+      <c r="C298" s="41"/>
+      <c r="D298" s="41"/>
+      <c r="E298" s="41"/>
+      <c r="F298" s="41"/>
+      <c r="G298" s="41"/>
+      <c r="H298" s="41"/>
+      <c r="I298" s="41"/>
+      <c r="J298" s="41"/>
+    </row>
+    <row r="299" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B299" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="300" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B300" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C300" s="13"/>
+      <c r="D300" s="13"/>
+      <c r="E300" s="13"/>
+      <c r="F300" s="13"/>
+      <c r="G300" s="13"/>
+      <c r="H300" s="13"/>
+    </row>
+    <row r="301" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B301" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C301" s="13"/>
+      <c r="D301" s="13"/>
+      <c r="E301" s="13"/>
+      <c r="F301" s="13"/>
+      <c r="G301" s="13"/>
+      <c r="H301" s="13"/>
+    </row>
+    <row r="302" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B302" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C302" s="13"/>
+      <c r="D302" s="13"/>
+      <c r="E302" s="13"/>
+      <c r="F302" s="13"/>
+      <c r="G302" s="13"/>
+      <c r="H302" s="13"/>
+    </row>
+    <row r="303" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B303" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C303" s="13"/>
+      <c r="D303" s="13"/>
+      <c r="E303" s="13"/>
+      <c r="F303" s="13"/>
+      <c r="G303" s="13"/>
+      <c r="H303" s="13"/>
+    </row>
+    <row r="304" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B304" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C304" s="13"/>
+      <c r="D304" s="13"/>
+      <c r="E304" s="13"/>
+      <c r="F304" s="13"/>
+      <c r="G304" s="13"/>
+      <c r="H304" s="13"/>
+    </row>
+    <row r="305" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B305" s="13"/>
+      <c r="C305" s="13"/>
+      <c r="D305" s="13"/>
+      <c r="E305" s="13"/>
+      <c r="F305" s="13"/>
+      <c r="G305" s="13"/>
+      <c r="H305" s="13"/>
+    </row>
+    <row r="306" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B306" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C306" s="13"/>
+      <c r="D306" s="13"/>
+      <c r="E306" s="13"/>
+      <c r="F306" s="13"/>
+      <c r="G306" s="13"/>
+      <c r="H306" s="13"/>
+    </row>
+    <row r="307" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B307" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C307" s="13"/>
+      <c r="D307" s="13"/>
+      <c r="E307" s="13"/>
+      <c r="F307" s="13"/>
+      <c r="G307" s="13"/>
+      <c r="H307" s="13"/>
+    </row>
+    <row r="308" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B308" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C308" s="13"/>
+      <c r="D308" s="13"/>
+      <c r="E308" s="13"/>
+      <c r="F308" s="13"/>
+      <c r="G308" s="13"/>
+      <c r="H308" s="13"/>
+    </row>
+    <row r="309" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B309" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C309" s="13"/>
+      <c r="D309" s="13"/>
+      <c r="E309" s="13"/>
+      <c r="F309" s="13"/>
+      <c r="G309" s="13"/>
+      <c r="H309" s="13"/>
+    </row>
+    <row r="310" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B310" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C310" s="13"/>
+      <c r="D310" s="13"/>
+      <c r="E310" s="13"/>
+      <c r="F310" s="13"/>
+      <c r="G310" s="13"/>
+      <c r="H310" s="13"/>
+    </row>
+    <row r="311" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B311" s="13"/>
+      <c r="C311" s="13"/>
+      <c r="D311" s="13"/>
+      <c r="E311" s="13"/>
+      <c r="F311" s="13"/>
+      <c r="G311" s="13"/>
+      <c r="H311" s="13"/>
+    </row>
+    <row r="312" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B312" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C312" s="13"/>
+      <c r="D312" s="13"/>
+      <c r="E312" s="13"/>
+      <c r="F312" s="13"/>
+      <c r="G312" s="13"/>
+      <c r="H312" s="13"/>
+    </row>
+    <row r="313" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B313" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C313" s="13"/>
+      <c r="D313" s="13"/>
+      <c r="E313" s="13"/>
+      <c r="F313" s="13"/>
+      <c r="G313" s="13"/>
+      <c r="H313" s="13"/>
+    </row>
+    <row r="314" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B314" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C314" s="13"/>
+      <c r="D314" s="13"/>
+      <c r="E314" s="13"/>
+      <c r="F314" s="13"/>
+      <c r="G314" s="13"/>
+      <c r="H314" s="13"/>
+    </row>
+    <row r="315" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B315" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C315" s="13"/>
+      <c r="D315" s="13"/>
+      <c r="E315" s="13"/>
+      <c r="F315" s="13"/>
+      <c r="G315" s="13"/>
+      <c r="H315" s="13"/>
+    </row>
+    <row r="316" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B316" s="13"/>
+      <c r="C316" s="13"/>
+      <c r="D316" s="13"/>
+      <c r="E316" s="13"/>
+      <c r="F316" s="13"/>
+      <c r="G316" s="13"/>
+      <c r="H316" s="13"/>
+    </row>
+    <row r="317" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B317" s="13"/>
+      <c r="C317" s="13"/>
+      <c r="D317" s="13"/>
+      <c r="E317" s="13"/>
+      <c r="F317" s="13"/>
+      <c r="G317" s="13"/>
+      <c r="H317" s="13"/>
+    </row>
+    <row r="318" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B318" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C318" s="13"/>
+      <c r="D318" s="13"/>
+      <c r="E318" s="13"/>
+      <c r="F318" s="13"/>
+      <c r="G318" s="13"/>
+      <c r="H318" s="13"/>
+    </row>
+    <row r="319" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B319" s="13"/>
+      <c r="C319" s="13"/>
+      <c r="D319" s="13"/>
+      <c r="E319" s="13"/>
+      <c r="F319" s="13"/>
+      <c r="G319" s="13"/>
+      <c r="H319" s="13"/>
+    </row>
+    <row r="320" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B320" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="C320" s="13"/>
+      <c r="D320" s="13"/>
+      <c r="E320" s="13"/>
+      <c r="F320" s="13"/>
+      <c r="G320" s="13"/>
+      <c r="H320" s="13"/>
+    </row>
+    <row r="321" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B321" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C321" s="13"/>
+      <c r="D321" s="13"/>
+      <c r="E321" s="13"/>
+      <c r="F321" s="13"/>
+      <c r="G321" s="13"/>
+      <c r="H321" s="13"/>
+    </row>
+    <row r="322" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B322" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="C322" s="13"/>
+      <c r="D322" s="13"/>
+      <c r="E322" s="13"/>
+      <c r="F322" s="13"/>
+      <c r="G322" s="13"/>
+      <c r="H322" s="13"/>
+    </row>
+    <row r="323" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B323" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C323" s="13"/>
+      <c r="D323" s="13"/>
+      <c r="E323" s="13"/>
+      <c r="F323" s="13"/>
+      <c r="G323" s="13"/>
+      <c r="H323" s="13"/>
+    </row>
+    <row r="324" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B324" s="13"/>
+      <c r="C324" s="13"/>
+      <c r="D324" s="13"/>
+      <c r="E324" s="13"/>
+      <c r="F324" s="13"/>
+      <c r="G324" s="13"/>
+      <c r="H324" s="13"/>
+    </row>
+    <row r="325" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B325" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C325" s="13"/>
+      <c r="D325" s="13"/>
+      <c r="E325" s="13"/>
+      <c r="F325" s="13"/>
+      <c r="G325" s="13"/>
+      <c r="H325" s="13"/>
+    </row>
+    <row r="326" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B326" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C326" s="13"/>
+      <c r="D326" s="13"/>
+      <c r="E326" s="13"/>
+      <c r="F326" s="13"/>
+      <c r="G326" s="13"/>
+      <c r="H326" s="13"/>
+    </row>
+    <row r="327" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B327" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C327" s="13"/>
+      <c r="D327" s="13"/>
+      <c r="E327" s="13"/>
+      <c r="F327" s="13"/>
+      <c r="G327" s="13"/>
+      <c r="H327" s="13"/>
+    </row>
+    <row r="328" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B328" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C328" s="13"/>
+      <c r="D328" s="13"/>
+      <c r="E328" s="13"/>
+      <c r="F328" s="13"/>
+      <c r="G328" s="13"/>
+      <c r="H328" s="13"/>
+    </row>
+    <row r="329" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B329" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C329" s="13"/>
+      <c r="D329" s="13"/>
+      <c r="E329" s="13"/>
+      <c r="F329" s="13"/>
+      <c r="G329" s="13"/>
+      <c r="H329" s="13"/>
+    </row>
+    <row r="330" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B330" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C330" s="13"/>
+      <c r="D330" s="13"/>
+      <c r="E330" s="13"/>
+      <c r="F330" s="13"/>
+      <c r="G330" s="13"/>
+      <c r="H330" s="13"/>
+    </row>
+    <row r="331" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B331" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C331" s="13"/>
+      <c r="D331" s="13"/>
+      <c r="E331" s="13"/>
+      <c r="F331" s="13"/>
+      <c r="G331" s="13"/>
+      <c r="H331" s="13"/>
+    </row>
+    <row r="332" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B332" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C332" s="13"/>
+      <c r="D332" s="13"/>
+      <c r="E332" s="13"/>
+      <c r="F332" s="13"/>
+      <c r="G332" s="13"/>
+      <c r="H332" s="13"/>
+    </row>
+    <row r="333" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B333" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C333" s="13"/>
+      <c r="D333" s="13"/>
+      <c r="E333" s="13"/>
+      <c r="F333" s="13"/>
+      <c r="G333" s="13"/>
+      <c r="H333" s="13"/>
+    </row>
+    <row r="334" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B334" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C334" s="13"/>
+      <c r="D334" s="13"/>
+      <c r="E334" s="13"/>
+      <c r="F334" s="13"/>
+      <c r="G334" s="13"/>
+      <c r="H334" s="13"/>
+    </row>
+    <row r="335" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B335" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C335" s="13"/>
+      <c r="D335" s="13"/>
+      <c r="E335" s="13"/>
+      <c r="F335" s="13"/>
+      <c r="G335" s="13"/>
+      <c r="H335" s="13"/>
+    </row>
+    <row r="336" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B336" s="13"/>
+      <c r="C336" s="13"/>
+      <c r="D336" s="13"/>
+      <c r="E336" s="13"/>
+      <c r="F336" s="13"/>
+      <c r="G336" s="13"/>
+      <c r="H336" s="13"/>
+    </row>
+    <row r="337" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B337" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C337" s="31"/>
+      <c r="D337" s="31"/>
+      <c r="E337" s="31"/>
+      <c r="F337" s="31"/>
+      <c r="G337" s="31"/>
+      <c r="H337" s="31"/>
+    </row>
+    <row r="338" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B338" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="C338" s="31"/>
+      <c r="D338" s="31"/>
+      <c r="E338" s="31"/>
+      <c r="F338" s="31"/>
+      <c r="G338" s="31"/>
+      <c r="H338" s="31"/>
+    </row>
+    <row r="339" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B339" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C339" s="13"/>
+      <c r="D339" s="13"/>
+      <c r="E339" s="13"/>
+      <c r="F339" s="13"/>
+      <c r="G339" s="13"/>
+      <c r="H339" s="13"/>
+      <c r="J339" s="31"/>
+      <c r="K339" s="31"/>
+      <c r="L339" s="31"/>
+      <c r="M339" s="31"/>
+      <c r="N339" s="31"/>
+      <c r="O339" s="31"/>
+      <c r="P339" s="31"/>
+    </row>
+    <row r="340" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B340" s="13"/>
+      <c r="C340" s="13"/>
+      <c r="D340" s="13"/>
+      <c r="E340" s="13"/>
+      <c r="F340" s="13"/>
+      <c r="G340" s="13"/>
+      <c r="H340" s="13"/>
+      <c r="J340" s="31"/>
+      <c r="K340" s="31"/>
+      <c r="L340" s="31"/>
+      <c r="M340" s="31"/>
+      <c r="N340" s="31"/>
+      <c r="O340" s="31"/>
+      <c r="P340" s="31"/>
+    </row>
+    <row r="341" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B341" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C341" s="13"/>
+      <c r="D341" s="13"/>
+      <c r="E341" s="13"/>
+      <c r="F341" s="13"/>
+      <c r="G341" s="13"/>
+      <c r="H341" s="13"/>
+    </row>
+    <row r="342" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B342" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C342" s="13"/>
+      <c r="D342" s="13"/>
+      <c r="E342" s="13"/>
+      <c r="F342" s="13"/>
+      <c r="G342" s="13"/>
+      <c r="H342" s="13"/>
+    </row>
+    <row r="343" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B343" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C343" s="13"/>
+      <c r="D343" s="13"/>
+      <c r="E343" s="13"/>
+      <c r="F343" s="13"/>
+      <c r="G343" s="13"/>
+      <c r="H343" s="13"/>
+    </row>
+    <row r="344" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B344" s="13"/>
+      <c r="C344" s="13"/>
+      <c r="D344" s="13"/>
+      <c r="E344" s="13"/>
+      <c r="F344" s="13"/>
+      <c r="G344" s="13"/>
+      <c r="H344" s="13"/>
+    </row>
+    <row r="345" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B345" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C345" s="13"/>
+      <c r="D345" s="13"/>
+      <c r="E345" s="13"/>
+      <c r="F345" s="13"/>
+      <c r="G345" s="13"/>
+      <c r="H345" s="13"/>
+    </row>
+    <row r="346" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B346" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C346" s="13"/>
+      <c r="D346" s="13"/>
+      <c r="E346" s="13"/>
+      <c r="F346" s="13"/>
+      <c r="G346" s="13"/>
+      <c r="H346" s="13"/>
+    </row>
+    <row r="347" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B347" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C347" s="13"/>
+      <c r="D347" s="13"/>
+      <c r="E347" s="13"/>
+      <c r="F347" s="13"/>
+      <c r="G347" s="13"/>
+      <c r="H347" s="13"/>
+    </row>
+    <row r="348" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B348" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C348" s="13"/>
+      <c r="D348" s="13"/>
+      <c r="E348" s="13"/>
+      <c r="F348" s="13"/>
+      <c r="G348" s="13"/>
+      <c r="H348" s="13"/>
+    </row>
+    <row r="349" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B349" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C349" s="13"/>
+      <c r="D349" s="13"/>
+      <c r="E349" s="13"/>
+      <c r="F349" s="13"/>
+      <c r="G349" s="13"/>
+      <c r="H349" s="13"/>
+    </row>
+    <row r="350" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B350" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C350" s="13"/>
+      <c r="D350" s="13"/>
+      <c r="E350" s="13"/>
+      <c r="F350" s="13"/>
+      <c r="G350" s="13"/>
+      <c r="H350" s="13"/>
+    </row>
+    <row r="351" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B351" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C351" s="13"/>
+      <c r="D351" s="13"/>
+      <c r="E351" s="13"/>
+      <c r="F351" s="13"/>
+      <c r="G351" s="13"/>
+      <c r="H351" s="13"/>
+    </row>
+    <row r="352" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B352" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C352" s="13"/>
+      <c r="D352" s="13"/>
+      <c r="E352" s="13"/>
+      <c r="F352" s="13"/>
+      <c r="G352" s="13"/>
+      <c r="H352" s="13"/>
+    </row>
+    <row r="353" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B353" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C353" s="13"/>
+      <c r="D353" s="13"/>
+      <c r="E353" s="13"/>
+      <c r="F353" s="13"/>
+      <c r="G353" s="13"/>
+      <c r="H353" s="13"/>
+    </row>
+    <row r="354" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B354" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C354" s="13"/>
+      <c r="D354" s="13"/>
+      <c r="E354" s="13"/>
+      <c r="F354" s="13"/>
+      <c r="G354" s="13"/>
+      <c r="H354" s="13"/>
+    </row>
+    <row r="355" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B355" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C355" s="13"/>
+      <c r="D355" s="13"/>
+      <c r="E355" s="13"/>
+      <c r="F355" s="13"/>
+      <c r="G355" s="13"/>
+      <c r="H355" s="13"/>
+    </row>
+    <row r="356" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B356" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C356" s="13"/>
+      <c r="D356" s="13"/>
+      <c r="E356" s="13"/>
+      <c r="F356" s="13"/>
+      <c r="G356" s="13"/>
+      <c r="H356" s="13"/>
+    </row>
+    <row r="357" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B357" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C357" s="13"/>
+      <c r="D357" s="13"/>
+      <c r="E357" s="13"/>
+      <c r="F357" s="13"/>
+      <c r="G357" s="13"/>
+      <c r="H357" s="13"/>
+    </row>
+    <row r="358" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B358" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C358" s="13"/>
+      <c r="D358" s="13"/>
+      <c r="E358" s="13"/>
+      <c r="F358" s="13"/>
+      <c r="G358" s="13"/>
+      <c r="H358" s="13"/>
+    </row>
+    <row r="359" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B359" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C359" s="13"/>
+      <c r="D359" s="13"/>
+      <c r="E359" s="13"/>
+      <c r="F359" s="13"/>
+      <c r="G359" s="13"/>
+      <c r="H359" s="13"/>
+    </row>
+    <row r="360" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B360" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C360" s="13"/>
+      <c r="D360" s="13"/>
+      <c r="E360" s="13"/>
+      <c r="F360" s="13"/>
+      <c r="G360" s="13"/>
+      <c r="H360" s="13"/>
+    </row>
+    <row r="361" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B361" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C361" s="13"/>
+      <c r="D361" s="13"/>
+      <c r="E361" s="13"/>
+      <c r="F361" s="13"/>
+      <c r="G361" s="13"/>
+      <c r="H361" s="13"/>
+    </row>
+    <row r="362" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B362" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C362" s="13"/>
+      <c r="D362" s="13"/>
+      <c r="E362" s="13"/>
+      <c r="F362" s="13"/>
+      <c r="G362" s="13"/>
+      <c r="H362" s="13"/>
+    </row>
+    <row r="363" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B363" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C363" s="13"/>
+      <c r="D363" s="13"/>
+      <c r="E363" s="13"/>
+      <c r="F363" s="13"/>
+      <c r="G363" s="13"/>
+      <c r="H363" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/DTW-05-2022.xlsx
+++ b/DTW-05-2022.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16575" windowHeight="9645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16575" windowHeight="9645"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Git" sheetId="4" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId3"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="240">
   <si>
     <t xml:space="preserve">Mise a jour des titres dans </t>
   </si>
@@ -452,12 +454,501 @@
   <si>
     <t>On a lié le modele a une Vue ,et on utilise le modele qu'on passe a la vue grace a du razor</t>
   </si>
+  <si>
+    <t>Relions a la bdd</t>
+  </si>
+  <si>
+    <t>Mode local</t>
+  </si>
+  <si>
+    <t>On addresse une BDD existante en ligne ,on config le mode prod</t>
+  </si>
+  <si>
+    <t>Mode Prod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "ConnectionStrings": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "DefaultConnection": "server=mysql-devtechwatch.alwaysdata.net;database=devtechwatch_dtw; uid=267041;pwd=NYV8e@6u4$j4Wc7Eh;"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Logging": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "LogLevel": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Default": "Information",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Microsoft": "Warning",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Microsoft.Hosting.Lifetime": "Information"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "AllowedHosts": "*"</t>
+  </si>
+  <si>
+    <t>appsettings.json</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  // on commente/decommente a la demande.............</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  //"DefaultConnection": "server=127.0.0.1;database=dev_tech_watch;uid=root;pwd=5^6n=Z^HEQArnKvF;"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">On cree le repertoire config </t>
+  </si>
+  <si>
+    <t>+ BaseRepository.cs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public Startup(IConfiguration configuration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Configuration = configuration;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public IConfiguration Configuration { get; }</t>
+  </si>
+  <si>
+    <t>c'est de l'injection de dependance</t>
+  </si>
+  <si>
+    <t>Extention pour se connecter a mySQL</t>
+  </si>
+  <si>
+    <t>using Microsoft.Extensions.Configuration;</t>
+  </si>
+  <si>
+    <t>using MySql.Data.MySqlClient;</t>
+  </si>
+  <si>
+    <t>namespace DTW_Repository.config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //Cette classe va contenir les fonctions de connection a la BDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //On va pouvoir Heriter de cette classe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public class BaseRepository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      //on a besoin de ma chaine de connection..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      // ( elle est dans le appsettings.json )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public string ConnectionString { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // a la construction de mon BaseRepository. je veux recuperer la connection qui est dans l'interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // qui s'appelle : Iconfiguration !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // Iconfiguration fait partie d'un paquet qui s'appelle :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // "Microsoft.Extentions.Configuration.Abstraction" que l'on appelle un "Pakage-Nugget"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // ( c'est une dependance ,une sorte de "npm" )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public BaseRepository(IConfiguration configuration) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ConnectionString = configuration.GetConnectionString("DefaultConnection");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public MySqlConnection OpenConnection()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            //je peux avoir ma chaine de connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            //connectionString="server=mysql-devtechwatch.alwaysdata.net;database=devtechwatch_dtw; uid=267041;pwd=NYV8e@6u4$j4Wc7Eh;"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            try</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            { </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            MySqlConnection cnn = new MySqlConnection(ConnectionString);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                cnn.Open();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                //j'ouvre la connection et je la retourne'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                return cnn;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            catch(Exception ex)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                throw new Exception("Impossible de se connecter a la BDD");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public interface IBaseRepository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public MySqlConnection OpenConnection();</t>
+  </si>
+  <si>
+    <t>IBaseRepository.cs</t>
+  </si>
+  <si>
+    <t>On cree une interface</t>
+  </si>
+  <si>
+    <t>:IBaseRepository</t>
+  </si>
+  <si>
+    <t>(interface voir chapitre suivant)</t>
+  </si>
+  <si>
+    <t>Injection de dependance :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans le fichier </t>
+  </si>
+  <si>
+    <t>Startup.cs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public void ConfigureServices(IServiceCollection services)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            //injection de la dependance....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            services.AddTransient&lt;IBaseRepository,BaseRepository&gt;();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            services.AddControllersWithViews();</t>
+  </si>
+  <si>
+    <t>using DTW_Repository.config;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // on pourra appeller la fonction via son interface</t>
+  </si>
+  <si>
+    <t>Pour un repository on doit:</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>créer l'interface avec toutes les methodes</t>
+  </si>
+  <si>
+    <t>créer la classe (avec les methodes implementées</t>
+  </si>
+  <si>
+    <t>dans startup.cs:configure services,un service adtranscient avec mon interface</t>
+  </si>
+  <si>
+    <t>et la base repository</t>
+  </si>
+  <si>
+    <t>namespace DTW_Repository.Links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public List&lt;LinkModel&gt; GetAllLinks();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public class LinkRepository:ILinkRepository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public List&lt;LinkModel&gt; GetAllLinks() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return new List&lt;LinkModel&gt;(); }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> interface ILinkRepository</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> class LinkRepository:ILinkRepository</t>
+    </r>
+  </si>
+  <si>
+    <t>//injection de la dependance....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            services.AddTransient&lt;ILinkRepository,LinkRepository&gt;();</t>
+  </si>
+  <si>
+    <t>39:00:00 ??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return new List&lt;LinkModel&gt;()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                new LinkModel()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Title="on est dans le repository"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // todo recuperer le modele depuis le repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        private readonly ILinkRepository _linkRepository;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public LinksController(ILinkRepository linkRepository)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // des qu'on instancie un link controleur ,on recupere link repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // via interface et l'injection de dependances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            _linkRepository = linkRepository;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                LstLinks = _linkRepository.GetAllLinks()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                // appel de la methode via interface/injection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return View(vm);</t>
+  </si>
+  <si>
+    <t>On modifie le controleur</t>
+  </si>
+  <si>
+    <t>Link repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public LinkRepository(IConfiguration configuration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // je connecte a Bdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // je cree une requette SQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            string sql = @"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               SELECT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    l.idLinks, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    l.Title,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    l.Description, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    l.Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                FROM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    links l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    LIMIT 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // executer la requette SQL donc  creer une comande avec l'objet MysqlComand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // je cree une commande en passant sql(la requette) ,et la connection (cnn)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            MySqlCommand cmd=new MySqlCommand(sql,cnn);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // je dois maintenant executer cette commande:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var reader = cmd.ExecuteReader();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var maListe=new List&lt;LinkModel&gt;();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            while (reader.Read())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                var lelien = new LinkModel()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    IdLink = (int)reader["idLinks"],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Title = reader["Title"].ToString(),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Description = reader["Description"].ToString(),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    URL = reader["Link"].ToString(),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                };</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                maListe.Add(lelien);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            cnn.Open();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           // J'ouvre la connection ! ****</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            cnn.Close();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // retour liste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         // on ferme la connection !</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> maListe;</t>
+    </r>
+  </si>
+  <si>
+    <t>commid and puch</t>
+  </si>
+  <si>
+    <t>add/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,6 +1027,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
@@ -552,7 +1050,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -565,8 +1077,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,13 +1147,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,7 +1218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -645,17 +1229,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,6 +1282,599 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>332964</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>8975</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Groupe 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="95250" y="371475"/>
+          <a:ext cx="3285714" cy="4400000"/>
+          <a:chOff x="6496050" y="67998975"/>
+          <a:chExt cx="3285714" cy="4400000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Image 2"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6496050" y="67998975"/>
+            <a:ext cx="3285714" cy="4400000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="4" name="Connecteur en angle 3"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="7524752" y="69132454"/>
+            <a:ext cx="1943098" cy="228596"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:headEnd w="lg" len="lg"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="5" name="Connecteur en angle 4"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="7124702" y="69494401"/>
+            <a:ext cx="2343148" cy="9524"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:headEnd w="lg" len="lg"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="ZoneTexte 5"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8324850" y="69056249"/>
+            <a:ext cx="1371600" cy="581025"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Git add +</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Git Commit</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28131</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>94899</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Groupe 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4095750" y="523875"/>
+          <a:ext cx="3552381" cy="2809524"/>
+          <a:chOff x="809625" y="70999350"/>
+          <a:chExt cx="3552381" cy="2809524"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8" name="Image 7"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="809625" y="70999350"/>
+            <a:ext cx="3552381" cy="2809524"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="9" name="Connecteur en angle 8"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000" flipV="1">
+            <a:off x="1885953" y="72028049"/>
+            <a:ext cx="1685922" cy="819149"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:headEnd w="lg" len="lg"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="ZoneTexte 9"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2628900" y="71323200"/>
+            <a:ext cx="1371600" cy="847725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Git add +</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Git Commit+</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Git Pusch</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="11" name="Connecteur en angle 10"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="2266950" y="73018651"/>
+            <a:ext cx="1733550" cy="542924"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:headEnd w="lg" len="lg"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="ZoneTexte 11"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2943225" y="72675750"/>
+            <a:ext cx="1371600" cy="1028700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Git add +</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Git Commit+</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Git Pull+</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Git Pusch</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="fr-FR" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>415422</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Image 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591176" y="4924425"/>
+          <a:ext cx="4730246" cy="2162175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>263525</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>174626</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Image 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5597525" y="7372350"/>
+          <a:ext cx="5245101" cy="2247900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>388290</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>127872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>150042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Image 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5722290" y="9843372"/>
+          <a:ext cx="5212409" cy="2879670"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1180,7 +2381,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1370,6 +2571,1152 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>31702</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638176" y="600075"/>
+          <a:ext cx="2743200" cy="1717627"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>176214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Flèche vers le bas 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3131342" y="1107284"/>
+          <a:ext cx="204790" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>14290</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Flèche vers le bas 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3117055" y="931070"/>
+          <a:ext cx="204790" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190199</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="6381750"/>
+          <a:ext cx="2409524" cy="1257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>284853</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>133067</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="10325100"/>
+          <a:ext cx="7171428" cy="2266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161055</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>133058</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Image 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819150" y="12925425"/>
+          <a:ext cx="6961905" cy="2333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>18315</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>18657</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="Groupe 19"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="695325" y="18202275"/>
+          <a:ext cx="6180990" cy="3142857"/>
+          <a:chOff x="1162050" y="17830800"/>
+          <a:chExt cx="6180990" cy="3142857"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="13" name="Image 12"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1466850" y="17830800"/>
+            <a:ext cx="5876190" cy="3142857"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="ZoneTexte 13"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1162050" y="18992850"/>
+            <a:ext cx="1247775" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Clic droit &gt;&gt;</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Ellipse 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2619375" y="18430875"/>
+            <a:ext cx="2219325" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>155820</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="Groupe 18"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="21536025"/>
+          <a:ext cx="9086850" cy="3756270"/>
+          <a:chOff x="0" y="21431250"/>
+          <a:chExt cx="9086850" cy="3756270"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="Image 8"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="257175" y="21431250"/>
+            <a:ext cx="8677275" cy="3756270"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Ellipse 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="22240875"/>
+            <a:ext cx="2886075" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Ellipse 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8048625" y="22383750"/>
+            <a:ext cx="1038225" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171192</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>9310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Image 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6486525" y="35766375"/>
+          <a:ext cx="2066667" cy="1723810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>138066</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Image 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1247775" y="54273451"/>
+          <a:ext cx="2990850" cy="2490740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Image 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181100" y="55768875"/>
+          <a:ext cx="1266825" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>637764</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>94700</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="50" name="Groupe 49"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6496050" y="67998975"/>
+          <a:ext cx="3285714" cy="4400000"/>
+          <a:chOff x="6496050" y="67998975"/>
+          <a:chExt cx="3285714" cy="4400000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="25" name="Image 24"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6496050" y="67998975"/>
+            <a:ext cx="3285714" cy="4400000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="27" name="Connecteur en angle 26"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="7524752" y="69132454"/>
+            <a:ext cx="1943098" cy="228596"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:headEnd w="lg" len="lg"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="31" name="Connecteur en angle 30"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="7124702" y="69494401"/>
+            <a:ext cx="2343148" cy="9524"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:headEnd w="lg" len="lg"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="ZoneTexte 32"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8324850" y="69056249"/>
+            <a:ext cx="1371600" cy="581025"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Git add +</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Git Commit</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>370</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552006</xdr:colOff>
+      <xdr:row>384</xdr:row>
+      <xdr:rowOff>171099</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="47" name="Groupe 46"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="809625" y="70999350"/>
+          <a:ext cx="3552381" cy="2809524"/>
+          <a:chOff x="809625" y="70999350"/>
+          <a:chExt cx="3552381" cy="2809524"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="34" name="Image 33"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="809625" y="70999350"/>
+            <a:ext cx="3552381" cy="2809524"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="36" name="Connecteur en angle 35"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000" flipV="1">
+            <a:off x="1885953" y="72028049"/>
+            <a:ext cx="1685922" cy="819149"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:headEnd w="lg" len="lg"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="ZoneTexte 37"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2628900" y="71323200"/>
+            <a:ext cx="1371600" cy="847725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Git add +</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Git Commit+</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Git Pusch</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="43" name="Connecteur en angle 42"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="2266950" y="73018651"/>
+            <a:ext cx="1733550" cy="542924"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:headEnd w="lg" len="lg"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="ZoneTexte 41"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2943225" y="72675750"/>
+            <a:ext cx="1371600" cy="1028700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Git add +</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Git Commit+</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Git Pull+</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Git Pusch</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="fr-FR" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1638,10 +3985,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="Q61" sqref="P61:Q61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B31:J79"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1686,11 +4048,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B22:R224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D227" sqref="D227"/>
     </sheetView>
   </sheetViews>
@@ -2083,18 +4445,18 @@
       <c r="K93" s="3"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
     </row>
     <row r="101" spans="2:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B101" s="8" t="s">
@@ -2107,48 +4469,48 @@
       </c>
     </row>
     <row r="105" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14" t="s">
+      <c r="C105" s="16"/>
+      <c r="D105" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
-      <c r="I108" s="10"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
     </row>
     <row r="109" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
     </row>
     <row r="110" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15" t="s">
+      <c r="C110" s="17"/>
+      <c r="D110" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E110" s="15"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15" t="s">
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2385,10 +4747,10 @@
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
-      <c r="H144" s="16" t="s">
+      <c r="H144" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I144" s="16"/>
+      <c r="I144" s="19"/>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" s="3" t="s">
@@ -2409,14 +4771,14 @@
       <c r="F146" s="3"/>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B151" s="10"/>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10"/>
-      <c r="G151" s="10"/>
-      <c r="H151" s="10"/>
-      <c r="I151" s="10"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="11"/>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
@@ -2508,7 +4870,7 @@
       <c r="F163" s="3"/>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B164" s="17" t="s">
+      <c r="B164" s="21" t="s">
         <v>88</v>
       </c>
       <c r="C164" s="3"/>
@@ -2787,12 +5149,12 @@
       <c r="F194" s="3"/>
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B196" s="18"/>
-      <c r="C196" s="18"/>
-      <c r="D196" s="18"/>
-      <c r="E196" s="18"/>
-      <c r="F196" s="18"/>
-      <c r="G196" s="18"/>
+      <c r="B196" s="22"/>
+      <c r="C196" s="22"/>
+      <c r="D196" s="22"/>
+      <c r="E196" s="22"/>
+      <c r="F196" s="22"/>
+      <c r="G196" s="22"/>
     </row>
     <row r="198" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B198" s="8" t="s">
@@ -2816,7 +5178,7 @@
       <c r="G200" s="3"/>
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B201" s="19" t="s">
+      <c r="B201" s="24" t="s">
         <v>104</v>
       </c>
       <c r="C201" s="3"/>
@@ -2826,7 +5188,7 @@
       <c r="G201" s="3"/>
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B202" s="19" t="s">
+      <c r="B202" s="24" t="s">
         <v>52</v>
       </c>
       <c r="C202" s="3"/>
@@ -3034,7 +5396,7 @@
       <c r="G222" s="3"/>
     </row>
     <row r="224" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B224" s="20" t="s">
+      <c r="B224" s="25" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3043,4 +5405,2673 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:P363"/>
+  <sheetViews>
+    <sheetView topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="F366" sqref="F366"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="B15" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="28"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="28"/>
+      <c r="J90" s="28"/>
+      <c r="K90" s="28"/>
+      <c r="L90" s="28"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="30">
+        <v>1.0770833333333334</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B93" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B134" s="28"/>
+      <c r="C134" s="28"/>
+      <c r="D134" s="28"/>
+      <c r="E134" s="28"/>
+      <c r="F134" s="28"/>
+      <c r="G134" s="28"/>
+      <c r="H134" s="28"/>
+      <c r="I134" s="28"/>
+      <c r="J134" s="28"/>
+      <c r="K134" s="28"/>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B138" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="13"/>
+      <c r="J138" s="13"/>
+      <c r="K138" s="13"/>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B139" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="13"/>
+      <c r="I139" s="13"/>
+      <c r="J139" s="13"/>
+      <c r="K139" s="13"/>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B140" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="13"/>
+      <c r="I140" s="13"/>
+      <c r="J140" s="13"/>
+      <c r="K140" s="13"/>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B141" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="13"/>
+      <c r="J141" s="13"/>
+      <c r="K141" s="13"/>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B142" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="13"/>
+      <c r="I142" s="13"/>
+      <c r="J142" s="13"/>
+      <c r="K142" s="13"/>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B143" s="13"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="13"/>
+      <c r="I143" s="13"/>
+      <c r="J143" s="13"/>
+      <c r="K143" s="13"/>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B144" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="13"/>
+      <c r="I144" s="13"/>
+      <c r="J144" s="13"/>
+      <c r="K144" s="13"/>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B145" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="13"/>
+      <c r="J145" s="13"/>
+      <c r="K145" s="13"/>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B146" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="13"/>
+      <c r="I146" s="13"/>
+      <c r="J146" s="13"/>
+      <c r="K146" s="13"/>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B147" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="13"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="13"/>
+      <c r="I147" s="13"/>
+      <c r="J147" s="13"/>
+      <c r="K147" s="13"/>
+    </row>
+    <row r="148" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B148" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="F148" s="13"/>
+      <c r="G148" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="H148" s="13"/>
+      <c r="I148" s="13"/>
+      <c r="J148" s="13"/>
+      <c r="K148" s="13"/>
+    </row>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B149" s="13"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13"/>
+      <c r="G149" s="13"/>
+      <c r="H149" s="13"/>
+      <c r="I149" s="13"/>
+      <c r="J149" s="13"/>
+      <c r="K149" s="13"/>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B150" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="13"/>
+      <c r="I150" s="13"/>
+      <c r="J150" s="13"/>
+      <c r="K150" s="13"/>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B151" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="13"/>
+      <c r="H151" s="13"/>
+      <c r="I151" s="13"/>
+      <c r="J151" s="13"/>
+      <c r="K151" s="13"/>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B152" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="13"/>
+      <c r="I152" s="13"/>
+      <c r="J152" s="13"/>
+      <c r="K152" s="13"/>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B153" s="13"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="13"/>
+      <c r="J153" s="13"/>
+      <c r="K153" s="13"/>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B154" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
+      <c r="G154" s="13"/>
+      <c r="H154" s="13"/>
+      <c r="I154" s="13"/>
+      <c r="J154" s="13"/>
+      <c r="K154" s="13"/>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B155" s="13"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13"/>
+      <c r="G155" s="13"/>
+      <c r="H155" s="13"/>
+      <c r="I155" s="13"/>
+      <c r="J155" s="13"/>
+      <c r="K155" s="13"/>
+    </row>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B156" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13"/>
+      <c r="G156" s="13"/>
+      <c r="H156" s="13"/>
+      <c r="I156" s="13"/>
+      <c r="J156" s="13"/>
+      <c r="K156" s="13"/>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B157" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="13"/>
+      <c r="G157" s="13"/>
+      <c r="H157" s="13"/>
+      <c r="I157" s="13"/>
+      <c r="J157" s="13"/>
+      <c r="K157" s="13"/>
+    </row>
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B158" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
+      <c r="G158" s="13"/>
+      <c r="H158" s="13"/>
+      <c r="I158" s="13"/>
+      <c r="J158" s="13"/>
+      <c r="K158" s="13"/>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B159" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C159" s="13"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="13"/>
+      <c r="G159" s="13"/>
+      <c r="H159" s="13"/>
+      <c r="I159" s="13"/>
+      <c r="J159" s="13"/>
+      <c r="K159" s="13"/>
+    </row>
+    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B160" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="C160" s="13"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="13"/>
+      <c r="I160" s="13"/>
+      <c r="J160" s="13"/>
+      <c r="K160" s="13"/>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B161" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C161" s="13"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+      <c r="G161" s="13"/>
+      <c r="H161" s="13"/>
+      <c r="I161" s="13"/>
+      <c r="J161" s="13"/>
+      <c r="K161" s="13"/>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B162" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="13"/>
+      <c r="G162" s="13"/>
+      <c r="H162" s="13"/>
+      <c r="I162" s="13"/>
+      <c r="J162" s="13"/>
+      <c r="K162" s="13"/>
+    </row>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B163" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C163" s="13"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="13"/>
+      <c r="G163" s="13"/>
+      <c r="H163" s="13"/>
+      <c r="I163" s="13"/>
+      <c r="J163" s="13"/>
+      <c r="K163" s="13"/>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B164" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13"/>
+      <c r="G164" s="13"/>
+      <c r="H164" s="13"/>
+      <c r="I164" s="13"/>
+      <c r="J164" s="13"/>
+      <c r="K164" s="13"/>
+    </row>
+    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B165" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C165" s="13"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="13"/>
+      <c r="G165" s="13"/>
+      <c r="H165" s="13"/>
+      <c r="I165" s="13"/>
+      <c r="J165" s="13"/>
+      <c r="K165" s="13"/>
+    </row>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B166" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C166" s="13"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13"/>
+      <c r="G166" s="13"/>
+      <c r="H166" s="13"/>
+      <c r="I166" s="13"/>
+      <c r="J166" s="13"/>
+      <c r="K166" s="13"/>
+    </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B167" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C167" s="13"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="13"/>
+      <c r="F167" s="13"/>
+      <c r="G167" s="13"/>
+      <c r="H167" s="13"/>
+      <c r="I167" s="13"/>
+      <c r="J167" s="13"/>
+      <c r="K167" s="13"/>
+    </row>
+    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B168" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C168" s="13"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="13"/>
+      <c r="G168" s="13"/>
+      <c r="H168" s="13"/>
+      <c r="I168" s="13"/>
+      <c r="J168" s="13"/>
+      <c r="K168" s="13"/>
+    </row>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B169" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C169" s="13"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="13"/>
+      <c r="G169" s="13"/>
+      <c r="H169" s="13"/>
+      <c r="I169" s="13"/>
+      <c r="J169" s="13"/>
+      <c r="K169" s="13"/>
+    </row>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B170" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="13"/>
+      <c r="F170" s="13"/>
+      <c r="G170" s="13"/>
+      <c r="H170" s="13"/>
+      <c r="I170" s="13"/>
+      <c r="J170" s="13"/>
+      <c r="K170" s="13"/>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B171" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="13"/>
+      <c r="G171" s="13"/>
+      <c r="H171" s="13"/>
+      <c r="I171" s="13"/>
+      <c r="J171" s="13"/>
+      <c r="K171" s="13"/>
+    </row>
+    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B172" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="13"/>
+      <c r="F172" s="13"/>
+      <c r="G172" s="13"/>
+      <c r="H172" s="13"/>
+      <c r="I172" s="13"/>
+      <c r="J172" s="13"/>
+      <c r="K172" s="13"/>
+    </row>
+    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B173" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="13"/>
+      <c r="F173" s="13"/>
+      <c r="G173" s="13"/>
+      <c r="H173" s="13"/>
+      <c r="I173" s="13"/>
+      <c r="J173" s="13"/>
+      <c r="K173" s="13"/>
+    </row>
+    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B174" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C174" s="13"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="13"/>
+      <c r="F174" s="13"/>
+      <c r="G174" s="13"/>
+      <c r="H174" s="13"/>
+      <c r="I174" s="13"/>
+      <c r="J174" s="13"/>
+      <c r="K174" s="13"/>
+    </row>
+    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B175" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C175" s="13"/>
+      <c r="D175" s="13"/>
+      <c r="E175" s="13"/>
+      <c r="F175" s="13"/>
+      <c r="G175" s="13"/>
+      <c r="H175" s="13"/>
+      <c r="I175" s="13"/>
+      <c r="J175" s="13"/>
+      <c r="K175" s="13"/>
+    </row>
+    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B176" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C176" s="13"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="13"/>
+      <c r="G176" s="13"/>
+      <c r="H176" s="13"/>
+      <c r="I176" s="13"/>
+      <c r="J176" s="13"/>
+      <c r="K176" s="13"/>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B177" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C177" s="13"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="13"/>
+      <c r="G177" s="13"/>
+      <c r="H177" s="13"/>
+      <c r="I177" s="13"/>
+      <c r="J177" s="13"/>
+      <c r="K177" s="13"/>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B178" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C178" s="13"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="13"/>
+      <c r="G178" s="13"/>
+      <c r="H178" s="13"/>
+      <c r="I178" s="13"/>
+      <c r="J178" s="13"/>
+      <c r="K178" s="13"/>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B179" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C179" s="13"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="13"/>
+      <c r="F179" s="13"/>
+      <c r="G179" s="13"/>
+      <c r="H179" s="13"/>
+      <c r="I179" s="13"/>
+      <c r="J179" s="13"/>
+      <c r="K179" s="13"/>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B180" s="13"/>
+      <c r="C180" s="13"/>
+      <c r="D180" s="13"/>
+      <c r="E180" s="13"/>
+      <c r="F180" s="13"/>
+      <c r="G180" s="13"/>
+      <c r="H180" s="13"/>
+      <c r="I180" s="13"/>
+      <c r="J180" s="13"/>
+      <c r="K180" s="13"/>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B181" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C181" s="13"/>
+      <c r="D181" s="13"/>
+      <c r="E181" s="13"/>
+      <c r="F181" s="13"/>
+      <c r="G181" s="13"/>
+      <c r="H181" s="13"/>
+      <c r="I181" s="13"/>
+      <c r="J181" s="13"/>
+      <c r="K181" s="13"/>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B182" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C182" s="13"/>
+      <c r="D182" s="13"/>
+      <c r="E182" s="13"/>
+      <c r="F182" s="13"/>
+      <c r="G182" s="13"/>
+      <c r="H182" s="13"/>
+      <c r="I182" s="13"/>
+      <c r="J182" s="13"/>
+      <c r="K182" s="13"/>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B183" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C183" s="13"/>
+      <c r="D183" s="13"/>
+      <c r="E183" s="13"/>
+      <c r="F183" s="13"/>
+      <c r="G183" s="13"/>
+      <c r="H183" s="13"/>
+      <c r="I183" s="13"/>
+      <c r="J183" s="13"/>
+      <c r="K183" s="13"/>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B185" s="32"/>
+      <c r="C185" s="32"/>
+      <c r="D185" s="32"/>
+      <c r="E185" s="32"/>
+      <c r="F185" s="32"/>
+      <c r="G185" s="32"/>
+      <c r="H185" s="32"/>
+      <c r="I185" s="32"/>
+      <c r="J185" s="32"/>
+    </row>
+    <row r="187" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B187" s="33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="188" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B188" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B189" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C189" s="13"/>
+      <c r="D189" s="13"/>
+      <c r="E189" s="13"/>
+      <c r="F189" s="13"/>
+      <c r="G189" s="13"/>
+      <c r="H189" s="13"/>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B190" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C190" s="13"/>
+      <c r="D190" s="13"/>
+      <c r="E190" s="13"/>
+      <c r="F190" s="13"/>
+      <c r="G190" s="13"/>
+      <c r="H190" s="13"/>
+    </row>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B191" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C191" s="13"/>
+      <c r="D191" s="13"/>
+      <c r="E191" s="13"/>
+      <c r="F191" s="13"/>
+      <c r="G191" s="13"/>
+      <c r="H191" s="13"/>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B192" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C192" s="13"/>
+      <c r="D192" s="13"/>
+      <c r="E192" s="13"/>
+      <c r="F192" s="13"/>
+      <c r="G192" s="13"/>
+      <c r="H192" s="13"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B193" s="13"/>
+      <c r="C193" s="13"/>
+      <c r="D193" s="13"/>
+      <c r="E193" s="13"/>
+      <c r="F193" s="13"/>
+      <c r="G193" s="13"/>
+      <c r="H193" s="13"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B194" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C194" s="13"/>
+      <c r="D194" s="13"/>
+      <c r="E194" s="13"/>
+      <c r="F194" s="13"/>
+      <c r="G194" s="13"/>
+      <c r="H194" s="13"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B195" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C195" s="13"/>
+      <c r="D195" s="13"/>
+      <c r="E195" s="13"/>
+      <c r="F195" s="13"/>
+      <c r="G195" s="13"/>
+      <c r="H195" s="13"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B196" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C196" s="13"/>
+      <c r="D196" s="13"/>
+      <c r="E196" s="13"/>
+      <c r="F196" s="13"/>
+      <c r="G196" s="13"/>
+      <c r="H196" s="13"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B197" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C197" s="13"/>
+      <c r="D197" s="13"/>
+      <c r="E197" s="13"/>
+      <c r="F197" s="13"/>
+      <c r="G197" s="13"/>
+      <c r="H197" s="13"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B198" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C198" s="13"/>
+      <c r="D198" s="13"/>
+      <c r="E198" s="13"/>
+      <c r="F198" s="13"/>
+      <c r="G198" s="13"/>
+      <c r="H198" s="13"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B199" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C199" s="13"/>
+      <c r="D199" s="13"/>
+      <c r="E199" s="13"/>
+      <c r="F199" s="13"/>
+      <c r="G199" s="13"/>
+      <c r="H199" s="13"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B200" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C200" s="13"/>
+      <c r="D200" s="13"/>
+      <c r="E200" s="13"/>
+      <c r="F200" s="13"/>
+      <c r="G200" s="13"/>
+      <c r="H200" s="13"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="29">
+        <v>1.3229166666666667</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B204" s="18"/>
+      <c r="C204" s="18"/>
+      <c r="D204" s="18"/>
+      <c r="E204" s="18"/>
+      <c r="F204" s="18"/>
+      <c r="G204" s="18"/>
+      <c r="H204" s="18"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>167</v>
+      </c>
+      <c r="D207" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B209" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C209" s="23"/>
+      <c r="D209" s="23"/>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+      <c r="F210" s="3"/>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B211" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+      <c r="F211" s="3"/>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B212" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B213" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="23"/>
+      <c r="F213" s="23"/>
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B214" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B215" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C215" s="23"/>
+      <c r="D215" s="23"/>
+      <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B216" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B217" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="3"/>
+    </row>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B220" s="36"/>
+      <c r="C220" s="36"/>
+      <c r="D220" s="36"/>
+      <c r="E220" s="36"/>
+      <c r="F220" s="36"/>
+      <c r="G220" s="36"/>
+      <c r="H220" s="36"/>
+      <c r="I220" s="36"/>
+    </row>
+    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C222" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C224" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D224" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C225" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D225" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C226" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D226" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E227" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C230" s="36"/>
+      <c r="D230" s="36"/>
+      <c r="E230" s="36"/>
+      <c r="F230" s="36"/>
+      <c r="G230" s="36"/>
+      <c r="H230" s="36"/>
+    </row>
+    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B233" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C233" s="13"/>
+      <c r="D233" s="13"/>
+      <c r="E233" s="13"/>
+      <c r="F233" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+    </row>
+    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B234" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C234" s="13"/>
+      <c r="D234" s="13"/>
+      <c r="E234" s="13"/>
+      <c r="F234" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+    </row>
+    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B235" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C235" s="13"/>
+      <c r="D235" s="13"/>
+      <c r="E235" s="13"/>
+      <c r="F235" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+    </row>
+    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B236" s="13"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="13"/>
+      <c r="E236" s="13"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
+    </row>
+    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B237" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C237" s="13"/>
+      <c r="D237" s="13"/>
+      <c r="E237" s="13"/>
+      <c r="F237" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
+    </row>
+    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B238" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C238" s="13"/>
+      <c r="D238" s="13"/>
+      <c r="E238" s="13"/>
+      <c r="F238" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G238" s="1"/>
+      <c r="H238" s="1"/>
+      <c r="I238" s="1"/>
+    </row>
+    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B239" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="C239" s="13"/>
+      <c r="D239" s="13"/>
+      <c r="E239" s="13"/>
+      <c r="F239" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+    </row>
+    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B240" s="13"/>
+      <c r="C240" s="13"/>
+      <c r="D240" s="13"/>
+      <c r="E240" s="13"/>
+      <c r="F240" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G240" s="1"/>
+      <c r="H240" s="1"/>
+      <c r="I240" s="1"/>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B241" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C241" s="13"/>
+      <c r="D241" s="13"/>
+      <c r="E241" s="13"/>
+      <c r="F241" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G241" s="1"/>
+      <c r="H241" s="1"/>
+      <c r="I241" s="1"/>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B242" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C242" s="13"/>
+      <c r="D242" s="13"/>
+      <c r="E242" s="13"/>
+      <c r="F242" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1"/>
+      <c r="I242" s="1"/>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B243" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C243" s="13"/>
+      <c r="D243" s="13"/>
+      <c r="E243" s="13"/>
+      <c r="F243" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
+      <c r="I243" s="1"/>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B244" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C244" s="13"/>
+      <c r="D244" s="13"/>
+      <c r="E244" s="13"/>
+      <c r="F244" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G244" s="1"/>
+      <c r="H244" s="1"/>
+      <c r="I244" s="1"/>
+    </row>
+    <row r="246" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C246" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C248" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C250" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D250" s="13"/>
+      <c r="E250" s="13"/>
+      <c r="F250" s="13"/>
+      <c r="G250" s="13"/>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C251" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D251" s="13"/>
+      <c r="E251" s="13"/>
+      <c r="F251" s="13"/>
+      <c r="G251" s="13"/>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C252" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D252" s="13"/>
+      <c r="E252" s="13"/>
+      <c r="F252" s="13"/>
+      <c r="G252" s="13"/>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C253" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="D253" s="13"/>
+      <c r="E253" s="13"/>
+      <c r="F253" s="13"/>
+      <c r="G253" s="13"/>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" s="29">
+        <v>1.5458333333333334</v>
+      </c>
+      <c r="B256" s="40"/>
+      <c r="C256" s="40"/>
+      <c r="D256" s="40"/>
+      <c r="E256" s="40"/>
+      <c r="F256" s="40"/>
+      <c r="G256" s="40"/>
+      <c r="H256" s="40"/>
+      <c r="I256" s="40"/>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>190</v>
+      </c>
+      <c r="C258" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="H258" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C259" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D259" s="3"/>
+      <c r="E259" s="3"/>
+      <c r="F259" s="3"/>
+      <c r="H259" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I259" s="3"/>
+      <c r="J259" s="3"/>
+      <c r="K259" s="3"/>
+      <c r="L259" s="3"/>
+      <c r="M259" s="3"/>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C260" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D260" s="3"/>
+      <c r="E260" s="3"/>
+      <c r="F260" s="3"/>
+      <c r="H260" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I260" s="3"/>
+      <c r="J260" s="3"/>
+      <c r="K260" s="3"/>
+      <c r="L260" s="3"/>
+      <c r="M260" s="3"/>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C261" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D261" s="3"/>
+      <c r="E261" s="3"/>
+      <c r="F261" s="3"/>
+      <c r="H261" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I261" s="3"/>
+      <c r="J261" s="3"/>
+      <c r="K261" s="3"/>
+      <c r="L261" s="3"/>
+      <c r="M261" s="3"/>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C262" s="3"/>
+      <c r="D262" s="3"/>
+      <c r="E262" s="3"/>
+      <c r="F262" s="3"/>
+      <c r="H262" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I262" s="3"/>
+      <c r="J262" s="3"/>
+      <c r="K262" s="3"/>
+      <c r="L262" s="3"/>
+      <c r="M262" s="3"/>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C263" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D263" s="3"/>
+      <c r="E263" s="3"/>
+      <c r="F263" s="3"/>
+      <c r="H263" s="3"/>
+      <c r="I263" s="3"/>
+      <c r="J263" s="3"/>
+      <c r="K263" s="3"/>
+      <c r="L263" s="3"/>
+      <c r="M263" s="3"/>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C264" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D264" s="3"/>
+      <c r="E264" s="3"/>
+      <c r="F264" s="3"/>
+      <c r="H264" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I264" s="3"/>
+      <c r="J264" s="3"/>
+      <c r="K264" s="3"/>
+      <c r="L264" s="3"/>
+      <c r="M264" s="3"/>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C265" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D265" s="3"/>
+      <c r="E265" s="3"/>
+      <c r="F265" s="3"/>
+      <c r="H265" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I265" s="3"/>
+      <c r="J265" s="3"/>
+      <c r="K265" s="3"/>
+      <c r="L265" s="3"/>
+      <c r="M265" s="3"/>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C266" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D266" s="3"/>
+      <c r="E266" s="3"/>
+      <c r="F266" s="3"/>
+      <c r="H266" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I266" s="3"/>
+      <c r="J266" s="3"/>
+      <c r="K266" s="3"/>
+      <c r="L266" s="3"/>
+      <c r="M266" s="3"/>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C267" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D267" s="3"/>
+      <c r="E267" s="3"/>
+      <c r="F267" s="3"/>
+      <c r="H267" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I267" s="3"/>
+      <c r="J267" s="3"/>
+      <c r="K267" s="3"/>
+      <c r="L267" s="3"/>
+      <c r="M267" s="3"/>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C268" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D268" s="3"/>
+      <c r="E268" s="3"/>
+      <c r="F268" s="3"/>
+      <c r="H268" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I268" s="3"/>
+      <c r="J268" s="3"/>
+      <c r="K268" s="3"/>
+      <c r="L268" s="3"/>
+      <c r="M268" s="3"/>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C269" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D269" s="3"/>
+      <c r="E269" s="3"/>
+      <c r="F269" s="3"/>
+      <c r="H269" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I269" s="3"/>
+      <c r="J269" s="3"/>
+      <c r="K269" s="3"/>
+      <c r="L269" s="3"/>
+      <c r="M269" s="3"/>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C270" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D270" s="3"/>
+      <c r="E270" s="3"/>
+      <c r="F270" s="3"/>
+      <c r="H270" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I270" s="3"/>
+      <c r="J270" s="3"/>
+      <c r="K270" s="3"/>
+      <c r="L270" s="3"/>
+      <c r="M270" s="3"/>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C271" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D271" s="3"/>
+      <c r="E271" s="3"/>
+      <c r="F271" s="3"/>
+      <c r="H271" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I271" s="3"/>
+      <c r="J271" s="3"/>
+      <c r="K271" s="3"/>
+      <c r="L271" s="3"/>
+      <c r="M271" s="3"/>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C272" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D272" s="3"/>
+      <c r="E272" s="3"/>
+      <c r="F272" s="3"/>
+      <c r="H272" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I272" s="3"/>
+      <c r="J272" s="3"/>
+      <c r="K272" s="3"/>
+      <c r="L272" s="3"/>
+      <c r="M272" s="3"/>
+    </row>
+    <row r="273" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C273" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D273" s="3"/>
+      <c r="E273" s="3"/>
+      <c r="F273" s="3"/>
+      <c r="H273" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I273" s="3"/>
+      <c r="J273" s="3"/>
+      <c r="K273" s="3"/>
+      <c r="L273" s="3"/>
+      <c r="M273" s="3"/>
+    </row>
+    <row r="274" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C274" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D274" s="3"/>
+      <c r="E274" s="3"/>
+      <c r="F274" s="3"/>
+      <c r="H274" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I274" s="3"/>
+      <c r="J274" s="3"/>
+      <c r="K274" s="3"/>
+      <c r="L274" s="3"/>
+      <c r="M274" s="3"/>
+    </row>
+    <row r="275" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C275" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D275" s="3"/>
+      <c r="E275" s="3"/>
+      <c r="F275" s="3"/>
+      <c r="H275" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I275" s="3"/>
+      <c r="J275" s="3"/>
+      <c r="K275" s="3"/>
+      <c r="L275" s="3"/>
+      <c r="M275" s="3"/>
+    </row>
+    <row r="276" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C276" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D276" s="3"/>
+      <c r="E276" s="3"/>
+      <c r="F276" s="3"/>
+      <c r="H276" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I276" s="3"/>
+      <c r="J276" s="3"/>
+      <c r="K276" s="3"/>
+      <c r="L276" s="3"/>
+      <c r="M276" s="3"/>
+    </row>
+    <row r="277" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C277" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D277" s="3"/>
+      <c r="E277" s="3"/>
+      <c r="F277" s="3"/>
+      <c r="H277" s="3"/>
+      <c r="I277" s="3"/>
+      <c r="J277" s="3"/>
+      <c r="K277" s="3"/>
+      <c r="L277" s="3"/>
+      <c r="M277" s="3"/>
+    </row>
+    <row r="278" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C278" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D278" s="3"/>
+      <c r="E278" s="3"/>
+      <c r="F278" s="3"/>
+      <c r="H278" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I278" s="3"/>
+      <c r="J278" s="3"/>
+      <c r="K278" s="3"/>
+      <c r="L278" s="3"/>
+      <c r="M278" s="3"/>
+    </row>
+    <row r="279" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C279" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D279" s="3"/>
+      <c r="E279" s="3"/>
+      <c r="F279" s="3"/>
+      <c r="H279" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I279" s="3"/>
+      <c r="J279" s="3"/>
+      <c r="K279" s="3"/>
+      <c r="L279" s="3"/>
+      <c r="M279" s="3"/>
+    </row>
+    <row r="280" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H280" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I280" s="3"/>
+      <c r="J280" s="3"/>
+      <c r="K280" s="3"/>
+      <c r="L280" s="3"/>
+      <c r="M280" s="3"/>
+    </row>
+    <row r="281" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H281" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I281" s="3"/>
+      <c r="J281" s="3"/>
+      <c r="K281" s="3"/>
+      <c r="L281" s="3"/>
+      <c r="M281" s="3"/>
+    </row>
+    <row r="282" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H282" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I282" s="3"/>
+      <c r="J282" s="3"/>
+      <c r="K282" s="3"/>
+      <c r="L282" s="3"/>
+      <c r="M282" s="3"/>
+    </row>
+    <row r="283" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H283" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I283" s="3"/>
+      <c r="J283" s="3"/>
+      <c r="K283" s="3"/>
+      <c r="L283" s="3"/>
+      <c r="M283" s="3"/>
+    </row>
+    <row r="284" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H284" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I284" s="3"/>
+      <c r="J284" s="3"/>
+      <c r="K284" s="3"/>
+      <c r="L284" s="3"/>
+      <c r="M284" s="3"/>
+    </row>
+    <row r="285" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H285" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I285" s="3"/>
+      <c r="J285" s="3"/>
+      <c r="K285" s="3"/>
+      <c r="L285" s="3"/>
+      <c r="M285" s="3"/>
+    </row>
+    <row r="286" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H286" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I286" s="3"/>
+      <c r="J286" s="3"/>
+      <c r="K286" s="3"/>
+      <c r="L286" s="3"/>
+      <c r="M286" s="3"/>
+    </row>
+    <row r="287" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H287" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I287" s="3"/>
+      <c r="J287" s="3"/>
+      <c r="K287" s="3"/>
+      <c r="L287" s="3"/>
+      <c r="M287" s="3"/>
+    </row>
+    <row r="288" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H288" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I288" s="3"/>
+      <c r="J288" s="3"/>
+      <c r="K288" s="3"/>
+      <c r="L288" s="3"/>
+      <c r="M288" s="3"/>
+    </row>
+    <row r="298" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B298" s="41"/>
+      <c r="C298" s="41"/>
+      <c r="D298" s="41"/>
+      <c r="E298" s="41"/>
+      <c r="F298" s="41"/>
+      <c r="G298" s="41"/>
+      <c r="H298" s="41"/>
+      <c r="I298" s="41"/>
+      <c r="J298" s="41"/>
+    </row>
+    <row r="299" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B299" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="300" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B300" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C300" s="13"/>
+      <c r="D300" s="13"/>
+      <c r="E300" s="13"/>
+      <c r="F300" s="13"/>
+      <c r="G300" s="13"/>
+      <c r="H300" s="13"/>
+    </row>
+    <row r="301" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B301" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C301" s="13"/>
+      <c r="D301" s="13"/>
+      <c r="E301" s="13"/>
+      <c r="F301" s="13"/>
+      <c r="G301" s="13"/>
+      <c r="H301" s="13"/>
+    </row>
+    <row r="302" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B302" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C302" s="13"/>
+      <c r="D302" s="13"/>
+      <c r="E302" s="13"/>
+      <c r="F302" s="13"/>
+      <c r="G302" s="13"/>
+      <c r="H302" s="13"/>
+    </row>
+    <row r="303" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B303" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C303" s="13"/>
+      <c r="D303" s="13"/>
+      <c r="E303" s="13"/>
+      <c r="F303" s="13"/>
+      <c r="G303" s="13"/>
+      <c r="H303" s="13"/>
+    </row>
+    <row r="304" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B304" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C304" s="13"/>
+      <c r="D304" s="13"/>
+      <c r="E304" s="13"/>
+      <c r="F304" s="13"/>
+      <c r="G304" s="13"/>
+      <c r="H304" s="13"/>
+    </row>
+    <row r="305" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B305" s="13"/>
+      <c r="C305" s="13"/>
+      <c r="D305" s="13"/>
+      <c r="E305" s="13"/>
+      <c r="F305" s="13"/>
+      <c r="G305" s="13"/>
+      <c r="H305" s="13"/>
+    </row>
+    <row r="306" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B306" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C306" s="13"/>
+      <c r="D306" s="13"/>
+      <c r="E306" s="13"/>
+      <c r="F306" s="13"/>
+      <c r="G306" s="13"/>
+      <c r="H306" s="13"/>
+    </row>
+    <row r="307" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B307" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C307" s="13"/>
+      <c r="D307" s="13"/>
+      <c r="E307" s="13"/>
+      <c r="F307" s="13"/>
+      <c r="G307" s="13"/>
+      <c r="H307" s="13"/>
+    </row>
+    <row r="308" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B308" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C308" s="13"/>
+      <c r="D308" s="13"/>
+      <c r="E308" s="13"/>
+      <c r="F308" s="13"/>
+      <c r="G308" s="13"/>
+      <c r="H308" s="13"/>
+    </row>
+    <row r="309" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B309" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C309" s="13"/>
+      <c r="D309" s="13"/>
+      <c r="E309" s="13"/>
+      <c r="F309" s="13"/>
+      <c r="G309" s="13"/>
+      <c r="H309" s="13"/>
+    </row>
+    <row r="310" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B310" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C310" s="13"/>
+      <c r="D310" s="13"/>
+      <c r="E310" s="13"/>
+      <c r="F310" s="13"/>
+      <c r="G310" s="13"/>
+      <c r="H310" s="13"/>
+    </row>
+    <row r="311" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B311" s="13"/>
+      <c r="C311" s="13"/>
+      <c r="D311" s="13"/>
+      <c r="E311" s="13"/>
+      <c r="F311" s="13"/>
+      <c r="G311" s="13"/>
+      <c r="H311" s="13"/>
+    </row>
+    <row r="312" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B312" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C312" s="13"/>
+      <c r="D312" s="13"/>
+      <c r="E312" s="13"/>
+      <c r="F312" s="13"/>
+      <c r="G312" s="13"/>
+      <c r="H312" s="13"/>
+    </row>
+    <row r="313" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B313" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C313" s="13"/>
+      <c r="D313" s="13"/>
+      <c r="E313" s="13"/>
+      <c r="F313" s="13"/>
+      <c r="G313" s="13"/>
+      <c r="H313" s="13"/>
+    </row>
+    <row r="314" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B314" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C314" s="13"/>
+      <c r="D314" s="13"/>
+      <c r="E314" s="13"/>
+      <c r="F314" s="13"/>
+      <c r="G314" s="13"/>
+      <c r="H314" s="13"/>
+    </row>
+    <row r="315" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B315" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C315" s="13"/>
+      <c r="D315" s="13"/>
+      <c r="E315" s="13"/>
+      <c r="F315" s="13"/>
+      <c r="G315" s="13"/>
+      <c r="H315" s="13"/>
+    </row>
+    <row r="316" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B316" s="13"/>
+      <c r="C316" s="13"/>
+      <c r="D316" s="13"/>
+      <c r="E316" s="13"/>
+      <c r="F316" s="13"/>
+      <c r="G316" s="13"/>
+      <c r="H316" s="13"/>
+    </row>
+    <row r="317" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B317" s="13"/>
+      <c r="C317" s="13"/>
+      <c r="D317" s="13"/>
+      <c r="E317" s="13"/>
+      <c r="F317" s="13"/>
+      <c r="G317" s="13"/>
+      <c r="H317" s="13"/>
+    </row>
+    <row r="318" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B318" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C318" s="13"/>
+      <c r="D318" s="13"/>
+      <c r="E318" s="13"/>
+      <c r="F318" s="13"/>
+      <c r="G318" s="13"/>
+      <c r="H318" s="13"/>
+    </row>
+    <row r="319" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B319" s="13"/>
+      <c r="C319" s="13"/>
+      <c r="D319" s="13"/>
+      <c r="E319" s="13"/>
+      <c r="F319" s="13"/>
+      <c r="G319" s="13"/>
+      <c r="H319" s="13"/>
+    </row>
+    <row r="320" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B320" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="C320" s="13"/>
+      <c r="D320" s="13"/>
+      <c r="E320" s="13"/>
+      <c r="F320" s="13"/>
+      <c r="G320" s="13"/>
+      <c r="H320" s="13"/>
+    </row>
+    <row r="321" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B321" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C321" s="13"/>
+      <c r="D321" s="13"/>
+      <c r="E321" s="13"/>
+      <c r="F321" s="13"/>
+      <c r="G321" s="13"/>
+      <c r="H321" s="13"/>
+    </row>
+    <row r="322" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B322" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="C322" s="13"/>
+      <c r="D322" s="13"/>
+      <c r="E322" s="13"/>
+      <c r="F322" s="13"/>
+      <c r="G322" s="13"/>
+      <c r="H322" s="13"/>
+    </row>
+    <row r="323" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B323" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C323" s="13"/>
+      <c r="D323" s="13"/>
+      <c r="E323" s="13"/>
+      <c r="F323" s="13"/>
+      <c r="G323" s="13"/>
+      <c r="H323" s="13"/>
+    </row>
+    <row r="324" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B324" s="13"/>
+      <c r="C324" s="13"/>
+      <c r="D324" s="13"/>
+      <c r="E324" s="13"/>
+      <c r="F324" s="13"/>
+      <c r="G324" s="13"/>
+      <c r="H324" s="13"/>
+    </row>
+    <row r="325" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B325" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C325" s="13"/>
+      <c r="D325" s="13"/>
+      <c r="E325" s="13"/>
+      <c r="F325" s="13"/>
+      <c r="G325" s="13"/>
+      <c r="H325" s="13"/>
+    </row>
+    <row r="326" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B326" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C326" s="13"/>
+      <c r="D326" s="13"/>
+      <c r="E326" s="13"/>
+      <c r="F326" s="13"/>
+      <c r="G326" s="13"/>
+      <c r="H326" s="13"/>
+    </row>
+    <row r="327" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B327" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C327" s="13"/>
+      <c r="D327" s="13"/>
+      <c r="E327" s="13"/>
+      <c r="F327" s="13"/>
+      <c r="G327" s="13"/>
+      <c r="H327" s="13"/>
+    </row>
+    <row r="328" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B328" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C328" s="13"/>
+      <c r="D328" s="13"/>
+      <c r="E328" s="13"/>
+      <c r="F328" s="13"/>
+      <c r="G328" s="13"/>
+      <c r="H328" s="13"/>
+    </row>
+    <row r="329" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B329" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C329" s="13"/>
+      <c r="D329" s="13"/>
+      <c r="E329" s="13"/>
+      <c r="F329" s="13"/>
+      <c r="G329" s="13"/>
+      <c r="H329" s="13"/>
+    </row>
+    <row r="330" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B330" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C330" s="13"/>
+      <c r="D330" s="13"/>
+      <c r="E330" s="13"/>
+      <c r="F330" s="13"/>
+      <c r="G330" s="13"/>
+      <c r="H330" s="13"/>
+    </row>
+    <row r="331" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B331" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C331" s="13"/>
+      <c r="D331" s="13"/>
+      <c r="E331" s="13"/>
+      <c r="F331" s="13"/>
+      <c r="G331" s="13"/>
+      <c r="H331" s="13"/>
+    </row>
+    <row r="332" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B332" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C332" s="13"/>
+      <c r="D332" s="13"/>
+      <c r="E332" s="13"/>
+      <c r="F332" s="13"/>
+      <c r="G332" s="13"/>
+      <c r="H332" s="13"/>
+    </row>
+    <row r="333" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B333" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C333" s="13"/>
+      <c r="D333" s="13"/>
+      <c r="E333" s="13"/>
+      <c r="F333" s="13"/>
+      <c r="G333" s="13"/>
+      <c r="H333" s="13"/>
+    </row>
+    <row r="334" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B334" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C334" s="13"/>
+      <c r="D334" s="13"/>
+      <c r="E334" s="13"/>
+      <c r="F334" s="13"/>
+      <c r="G334" s="13"/>
+      <c r="H334" s="13"/>
+    </row>
+    <row r="335" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B335" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C335" s="13"/>
+      <c r="D335" s="13"/>
+      <c r="E335" s="13"/>
+      <c r="F335" s="13"/>
+      <c r="G335" s="13"/>
+      <c r="H335" s="13"/>
+    </row>
+    <row r="336" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B336" s="13"/>
+      <c r="C336" s="13"/>
+      <c r="D336" s="13"/>
+      <c r="E336" s="13"/>
+      <c r="F336" s="13"/>
+      <c r="G336" s="13"/>
+      <c r="H336" s="13"/>
+    </row>
+    <row r="337" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B337" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C337" s="31"/>
+      <c r="D337" s="31"/>
+      <c r="E337" s="31"/>
+      <c r="F337" s="31"/>
+      <c r="G337" s="31"/>
+      <c r="H337" s="31"/>
+    </row>
+    <row r="338" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B338" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="C338" s="31"/>
+      <c r="D338" s="31"/>
+      <c r="E338" s="31"/>
+      <c r="F338" s="31"/>
+      <c r="G338" s="31"/>
+      <c r="H338" s="31"/>
+    </row>
+    <row r="339" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B339" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C339" s="13"/>
+      <c r="D339" s="13"/>
+      <c r="E339" s="13"/>
+      <c r="F339" s="13"/>
+      <c r="G339" s="13"/>
+      <c r="H339" s="13"/>
+      <c r="J339" s="31"/>
+      <c r="K339" s="31"/>
+      <c r="L339" s="31"/>
+      <c r="M339" s="31"/>
+      <c r="N339" s="31"/>
+      <c r="O339" s="31"/>
+      <c r="P339" s="31"/>
+    </row>
+    <row r="340" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B340" s="13"/>
+      <c r="C340" s="13"/>
+      <c r="D340" s="13"/>
+      <c r="E340" s="13"/>
+      <c r="F340" s="13"/>
+      <c r="G340" s="13"/>
+      <c r="H340" s="13"/>
+      <c r="J340" s="31"/>
+      <c r="K340" s="31"/>
+      <c r="L340" s="31"/>
+      <c r="M340" s="31"/>
+      <c r="N340" s="31"/>
+      <c r="O340" s="31"/>
+      <c r="P340" s="31"/>
+    </row>
+    <row r="341" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B341" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C341" s="13"/>
+      <c r="D341" s="13"/>
+      <c r="E341" s="13"/>
+      <c r="F341" s="13"/>
+      <c r="G341" s="13"/>
+      <c r="H341" s="13"/>
+    </row>
+    <row r="342" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B342" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C342" s="13"/>
+      <c r="D342" s="13"/>
+      <c r="E342" s="13"/>
+      <c r="F342" s="13"/>
+      <c r="G342" s="13"/>
+      <c r="H342" s="13"/>
+    </row>
+    <row r="343" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B343" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C343" s="13"/>
+      <c r="D343" s="13"/>
+      <c r="E343" s="13"/>
+      <c r="F343" s="13"/>
+      <c r="G343" s="13"/>
+      <c r="H343" s="13"/>
+    </row>
+    <row r="344" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B344" s="13"/>
+      <c r="C344" s="13"/>
+      <c r="D344" s="13"/>
+      <c r="E344" s="13"/>
+      <c r="F344" s="13"/>
+      <c r="G344" s="13"/>
+      <c r="H344" s="13"/>
+    </row>
+    <row r="345" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B345" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C345" s="13"/>
+      <c r="D345" s="13"/>
+      <c r="E345" s="13"/>
+      <c r="F345" s="13"/>
+      <c r="G345" s="13"/>
+      <c r="H345" s="13"/>
+    </row>
+    <row r="346" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B346" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C346" s="13"/>
+      <c r="D346" s="13"/>
+      <c r="E346" s="13"/>
+      <c r="F346" s="13"/>
+      <c r="G346" s="13"/>
+      <c r="H346" s="13"/>
+    </row>
+    <row r="347" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B347" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C347" s="13"/>
+      <c r="D347" s="13"/>
+      <c r="E347" s="13"/>
+      <c r="F347" s="13"/>
+      <c r="G347" s="13"/>
+      <c r="H347" s="13"/>
+    </row>
+    <row r="348" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B348" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C348" s="13"/>
+      <c r="D348" s="13"/>
+      <c r="E348" s="13"/>
+      <c r="F348" s="13"/>
+      <c r="G348" s="13"/>
+      <c r="H348" s="13"/>
+    </row>
+    <row r="349" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B349" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C349" s="13"/>
+      <c r="D349" s="13"/>
+      <c r="E349" s="13"/>
+      <c r="F349" s="13"/>
+      <c r="G349" s="13"/>
+      <c r="H349" s="13"/>
+    </row>
+    <row r="350" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B350" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C350" s="13"/>
+      <c r="D350" s="13"/>
+      <c r="E350" s="13"/>
+      <c r="F350" s="13"/>
+      <c r="G350" s="13"/>
+      <c r="H350" s="13"/>
+    </row>
+    <row r="351" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B351" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C351" s="13"/>
+      <c r="D351" s="13"/>
+      <c r="E351" s="13"/>
+      <c r="F351" s="13"/>
+      <c r="G351" s="13"/>
+      <c r="H351" s="13"/>
+    </row>
+    <row r="352" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B352" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C352" s="13"/>
+      <c r="D352" s="13"/>
+      <c r="E352" s="13"/>
+      <c r="F352" s="13"/>
+      <c r="G352" s="13"/>
+      <c r="H352" s="13"/>
+      <c r="J352" t="s">
+        <v>238</v>
+      </c>
+      <c r="L352" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="353" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B353" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C353" s="13"/>
+      <c r="D353" s="13"/>
+      <c r="E353" s="13"/>
+      <c r="F353" s="13"/>
+      <c r="G353" s="13"/>
+      <c r="H353" s="13"/>
+    </row>
+    <row r="354" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B354" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C354" s="13"/>
+      <c r="D354" s="13"/>
+      <c r="E354" s="13"/>
+      <c r="F354" s="13"/>
+      <c r="G354" s="13"/>
+      <c r="H354" s="13"/>
+    </row>
+    <row r="355" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B355" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C355" s="13"/>
+      <c r="D355" s="13"/>
+      <c r="E355" s="13"/>
+      <c r="F355" s="13"/>
+      <c r="G355" s="13"/>
+      <c r="H355" s="13"/>
+    </row>
+    <row r="356" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B356" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C356" s="13"/>
+      <c r="D356" s="13"/>
+      <c r="E356" s="13"/>
+      <c r="F356" s="13"/>
+      <c r="G356" s="13"/>
+      <c r="H356" s="13"/>
+    </row>
+    <row r="357" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B357" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C357" s="13"/>
+      <c r="D357" s="13"/>
+      <c r="E357" s="13"/>
+      <c r="F357" s="13"/>
+      <c r="G357" s="13"/>
+      <c r="H357" s="13"/>
+    </row>
+    <row r="358" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B358" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C358" s="13"/>
+      <c r="D358" s="13"/>
+      <c r="E358" s="13"/>
+      <c r="F358" s="13"/>
+      <c r="G358" s="13"/>
+      <c r="H358" s="13"/>
+    </row>
+    <row r="359" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B359" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C359" s="13"/>
+      <c r="D359" s="13"/>
+      <c r="E359" s="13"/>
+      <c r="F359" s="13"/>
+      <c r="G359" s="13"/>
+      <c r="H359" s="13"/>
+    </row>
+    <row r="360" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B360" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C360" s="13"/>
+      <c r="D360" s="13"/>
+      <c r="E360" s="13"/>
+      <c r="F360" s="13"/>
+      <c r="G360" s="13"/>
+      <c r="H360" s="13"/>
+    </row>
+    <row r="361" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B361" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C361" s="13"/>
+      <c r="D361" s="13"/>
+      <c r="E361" s="13"/>
+      <c r="F361" s="13"/>
+      <c r="G361" s="13"/>
+      <c r="H361" s="13"/>
+    </row>
+    <row r="362" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B362" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C362" s="13"/>
+      <c r="D362" s="13"/>
+      <c r="E362" s="13"/>
+      <c r="F362" s="13"/>
+      <c r="G362" s="13"/>
+      <c r="H362" s="13"/>
+      <c r="O362" s="42"/>
+    </row>
+    <row r="363" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B363" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C363" s="13"/>
+      <c r="D363" s="13"/>
+      <c r="E363" s="13"/>
+      <c r="F363" s="13"/>
+      <c r="G363" s="13"/>
+      <c r="H363" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>